--- a/000 BASE GENERAL 2022/Localiza-Imágenes.xlsx
+++ b/000 BASE GENERAL 2022/Localiza-Imágenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EF8287-2F4E-4794-A4CA-DB11FA90B33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF1052-4289-4993-AEF0-7420857C6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9D38A7A7-FC5A-4450-AF8B-2B43A7191469}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7145,7 +7145,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA48BEBA-7B0E-4147-875B-E758812FEE6C}" name="TablaDinámica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA48BEBA-7B0E-4147-875B-E758812FEE6C}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C145" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8161,6 +8161,28 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}" name="Tabla1" displayName="Tabla1" ref="A1:M505" totalsRowShown="0">
+  <autoFilter ref="A1:M505" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E002CA1A-50FE-49E7-88A1-3A6DE0D4AD7A}" name="Región"/>
+    <tableColumn id="2" xr3:uid="{36A42F94-BFF2-43D5-A51B-CF66613218BD}" name="Codreg"/>
+    <tableColumn id="3" xr3:uid="{11033383-643F-4906-810D-B180934D1C7D}" name="Provincia"/>
+    <tableColumn id="4" xr3:uid="{643AE5DE-4C3B-41EE-AB0D-0DEF1DFAE923}" name="Codprov"/>
+    <tableColumn id="5" xr3:uid="{EBF97BB5-62B0-43F0-B16D-C37D8B54AA06}" name="Comuna"/>
+    <tableColumn id="6" xr3:uid="{524745DA-998A-4DA9-8D32-966EB4E87D04}" name="Codcom"/>
+    <tableColumn id="7" xr3:uid="{1319AD38-009F-47FA-A196-19694333959A}" name="CodTerritorio"/>
+    <tableColumn id="8" xr3:uid="{C7E9034B-8B4F-49A1-B1F6-56D92ADE8156}" name="Escala"/>
+    <tableColumn id="9" xr3:uid="{5C975574-8E8B-474C-8CE8-6D07C8A40D9C}" name="Territorio"/>
+    <tableColumn id="10" xr3:uid="{BE05ABFB-3B1D-4B23-9CD9-C5843151FF65}" name="Escudo"/>
+    <tableColumn id="11" xr3:uid="{3E051C41-8E4C-420B-9AAB-6D0AC12D4EAC}" name="Localización Geográfica"/>
+    <tableColumn id="12" xr3:uid="{BACCFF64-5889-46AF-B634-5E2F1B618D97}" name="Latitud"/>
+    <tableColumn id="13" xr3:uid="{941C1C2D-F7C7-4961-9087-6CA61AB2B10B}" name="Longitud"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8460,15 +8482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5098DE22-6C15-4FA1-AC90-D4AB719CEA25}">
   <dimension ref="A1:M505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M505"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="31.6640625" customWidth="1"/>
@@ -25161,6 +25185,9 @@
     <hyperlink ref="K363" r:id="rId4" display="https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/LocalizaReg/1.jpg" xr:uid="{90659706-7281-456F-8C99-DAE5203F708F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/000 BASE GENERAL 2022/Localiza-Imágenes.xlsx
+++ b/000 BASE GENERAL 2022/Localiza-Imágenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 BASE GENERAL 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF1052-4289-4993-AEF0-7420857C6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F1118-2D6A-4C7F-87D9-BF5E05DF8256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9D38A7A7-FC5A-4450-AF8B-2B43A7191469}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="923">
   <si>
     <t>Región</t>
   </si>
@@ -2810,432 +2810,6 @@
   </si>
   <si>
     <t>id Territorio</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>10-13</t>
-  </si>
-  <si>
-    <t>12-9</t>
-  </si>
-  <si>
-    <t>13-11</t>
-  </si>
-  <si>
-    <t>14-8</t>
-  </si>
-  <si>
-    <t>14-9</t>
-  </si>
-  <si>
-    <t>17-12</t>
-  </si>
-  <si>
-    <t>19-12</t>
-  </si>
-  <si>
-    <t>21-15</t>
-  </si>
-  <si>
-    <t>22-12</t>
-  </si>
-  <si>
-    <t>23-3</t>
-  </si>
-  <si>
-    <t>24-9</t>
-  </si>
-  <si>
-    <t>24-14</t>
-  </si>
-  <si>
-    <t>25-1</t>
-  </si>
-  <si>
-    <t>26-15</t>
-  </si>
-  <si>
-    <t>27-14</t>
-  </si>
-  <si>
-    <t>28-12</t>
-  </si>
-  <si>
-    <t>29-10</t>
-  </si>
-  <si>
-    <t>30-5</t>
-  </si>
-  <si>
-    <t>31-8</t>
-  </si>
-  <si>
-    <t>32-15</t>
-  </si>
-  <si>
-    <t>33-14</t>
-  </si>
-  <si>
-    <t>34-3</t>
-  </si>
-  <si>
-    <t>35-2</t>
-  </si>
-  <si>
-    <t>36-2</t>
-  </si>
-  <si>
-    <t>37-12</t>
-  </si>
-  <si>
-    <t>38-2</t>
-  </si>
-  <si>
-    <t>38-3</t>
-  </si>
-  <si>
-    <t>39-10</t>
-  </si>
-  <si>
-    <t>39-14</t>
-  </si>
-  <si>
-    <t>40-11</t>
-  </si>
-  <si>
-    <t>41-8</t>
-  </si>
-  <si>
-    <t>41-9</t>
-  </si>
-  <si>
-    <t>42-7</t>
-  </si>
-  <si>
-    <t>43-6</t>
-  </si>
-  <si>
-    <t>43-13</t>
-  </si>
-  <si>
-    <t>44-11</t>
-  </si>
-  <si>
-    <t>45-9</t>
-  </si>
-  <si>
-    <t>46-7</t>
-  </si>
-  <si>
-    <t>47-8</t>
-  </si>
-  <si>
-    <t>48-9</t>
-  </si>
-  <si>
-    <t>49-11</t>
-  </si>
-  <si>
-    <t>51-10</t>
-  </si>
-  <si>
-    <t>52-14</t>
-  </si>
-  <si>
-    <t>54-8</t>
-  </si>
-  <si>
-    <t>55-8</t>
-  </si>
-  <si>
-    <t>55-16</t>
-  </si>
-  <si>
-    <t>57-8</t>
-  </si>
-  <si>
-    <t>58-11</t>
-  </si>
-  <si>
-    <t>59-2</t>
-  </si>
-  <si>
-    <t>60-11</t>
-  </si>
-  <si>
-    <t>61-11</t>
-  </si>
-  <si>
-    <t>62-5</t>
-  </si>
-  <si>
-    <t>63-11</t>
-  </si>
-  <si>
-    <t>66-12</t>
-  </si>
-  <si>
-    <t>67-1</t>
-  </si>
-  <si>
-    <t>69-4</t>
-  </si>
-  <si>
-    <t>70-11</t>
-  </si>
-  <si>
-    <t>71-1</t>
-  </si>
-  <si>
-    <t>71-15</t>
-  </si>
-  <si>
-    <t>72-10</t>
-  </si>
-  <si>
-    <t>74-2</t>
-  </si>
-  <si>
-    <t>75-16</t>
-  </si>
-  <si>
-    <t>76-16</t>
-  </si>
-  <si>
-    <t>78-8</t>
-  </si>
-  <si>
-    <t>79-5</t>
-  </si>
-  <si>
-    <t>80-6</t>
-  </si>
-  <si>
-    <t>81-6</t>
-  </si>
-  <si>
-    <t>81-13</t>
-  </si>
-  <si>
-    <t>82-12</t>
-  </si>
-  <si>
-    <t>83-8</t>
-  </si>
-  <si>
-    <t>83-9</t>
-  </si>
-  <si>
-    <t>84-8</t>
-  </si>
-  <si>
-    <t>84-9</t>
-  </si>
-  <si>
-    <t>85-8</t>
-  </si>
-  <si>
-    <t>85-9</t>
-  </si>
-  <si>
-    <t>87-6</t>
-  </si>
-  <si>
-    <t>87-13</t>
-  </si>
-  <si>
-    <t>88-1</t>
-  </si>
-  <si>
-    <t>90-11</t>
-  </si>
-  <si>
-    <t>91-9</t>
-  </si>
-  <si>
-    <t>96-6</t>
-  </si>
-  <si>
-    <t>96-7</t>
-  </si>
-  <si>
-    <t>98-1</t>
-  </si>
-  <si>
-    <t>99-2</t>
-  </si>
-  <si>
-    <t>100-8</t>
-  </si>
-  <si>
-    <t>102-10</t>
-  </si>
-  <si>
-    <t>103-11</t>
-  </si>
-  <si>
-    <t>105-7</t>
-  </si>
-  <si>
-    <t>106-2</t>
-  </si>
-  <si>
-    <t>109-10</t>
-  </si>
-  <si>
-    <t>111-5</t>
-  </si>
-  <si>
-    <t>111-13</t>
-  </si>
-  <si>
-    <t>112-13</t>
-  </si>
-  <si>
-    <t>113-5</t>
-  </si>
-  <si>
-    <t>115-5</t>
-  </si>
-  <si>
-    <t>115-13</t>
-  </si>
-  <si>
-    <t>116-13</t>
-  </si>
-  <si>
-    <t>120-13</t>
-  </si>
-  <si>
-    <t>122-13</t>
-  </si>
-  <si>
-    <t>127-13</t>
-  </si>
-  <si>
-    <t>129-12</t>
-  </si>
-  <si>
-    <t>131-10</t>
-  </si>
-  <si>
-    <t>133-3</t>
-  </si>
-  <si>
-    <t>135-3</t>
-  </si>
-  <si>
-    <t>136-4</t>
-  </si>
-  <si>
-    <t>137-12</t>
-  </si>
-  <si>
-    <t>138-11</t>
-  </si>
-  <si>
-    <t>139-7</t>
-  </si>
-  <si>
-    <t>140-6</t>
-  </si>
-  <si>
-    <t>140-13</t>
-  </si>
-  <si>
-    <t>142-4</t>
-  </si>
-  <si>
-    <t>143-13</t>
-  </si>
-  <si>
-    <t>146-4</t>
-  </si>
-  <si>
-    <t>150-6</t>
-  </si>
-  <si>
-    <t>150-13</t>
-  </si>
-  <si>
-    <t>151-4</t>
-  </si>
-  <si>
-    <t>153-12</t>
-  </si>
-  <si>
-    <t>154-11</t>
-  </si>
-  <si>
-    <t>155-11</t>
-  </si>
-  <si>
-    <t>156-11</t>
-  </si>
-  <si>
-    <t>158-2</t>
-  </si>
-  <si>
-    <t>160-5</t>
-  </si>
-  <si>
-    <t>162-12</t>
-  </si>
-  <si>
-    <t>165-10</t>
-  </si>
-  <si>
-    <t>165-11</t>
-  </si>
-  <si>
-    <t>166-12</t>
-  </si>
-  <si>
-    <t>167-10</t>
-  </si>
-  <si>
-    <t>168-10</t>
-  </si>
-  <si>
-    <t>169-10</t>
-  </si>
-  <si>
-    <t>169-11</t>
-  </si>
-  <si>
-    <t>170-11</t>
-  </si>
-  <si>
-    <t>171-11</t>
-  </si>
-  <si>
-    <t>172-10</t>
-  </si>
-  <si>
-    <t>173-11</t>
-  </si>
-  <si>
-    <t>174-10</t>
-  </si>
-  <si>
-    <t>177-11</t>
-  </si>
-  <si>
-    <t>177-12</t>
-  </si>
-  <si>
-    <t>178-12</t>
-  </si>
-  <si>
-    <t>179-12</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3319,6 +2893,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -7145,7 +6720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA48BEBA-7B0E-4147-875B-E758812FEE6C}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA48BEBA-7B0E-4147-875B-E758812FEE6C}" name="TablaDinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C145" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8162,8 +7737,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}" name="Tabla1" displayName="Tabla1" ref="A1:M505" totalsRowShown="0">
-  <autoFilter ref="A1:M505" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}" name="Tabla1" displayName="Tabla1" ref="A1:M900" totalsRowShown="0">
+  <autoFilter ref="A1:M900" xr:uid="{EAE765D2-76EF-43D9-95C4-DC8415599093}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E002CA1A-50FE-49E7-88A1-3A6DE0D4AD7A}" name="Región"/>
     <tableColumn id="2" xr3:uid="{36A42F94-BFF2-43D5-A51B-CF66613218BD}" name="Codreg"/>
@@ -8480,10 +8055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5098DE22-6C15-4FA1-AC90-D4AB719CEA25}">
-  <dimension ref="A1:M505"/>
+  <dimension ref="A1:M900"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M505"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="B506" sqref="B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22770,8 +22345,8 @@
       <c r="B364">
         <v>10</v>
       </c>
-      <c r="G364" t="s">
-        <v>923</v>
+      <c r="G364" s="7">
+        <v>2000410</v>
       </c>
       <c r="H364" t="s">
         <v>920</v>
@@ -22787,8 +22362,8 @@
       <c r="B365">
         <v>9</v>
       </c>
-      <c r="G365" t="s">
-        <v>924</v>
+      <c r="G365" s="7">
+        <v>200059</v>
       </c>
       <c r="H365" t="s">
         <v>920</v>
@@ -22804,8 +22379,8 @@
       <c r="B366">
         <v>4</v>
       </c>
-      <c r="G366" t="s">
-        <v>925</v>
+      <c r="G366" s="7">
+        <v>200094</v>
       </c>
       <c r="H366" t="s">
         <v>920</v>
@@ -22821,8 +22396,8 @@
       <c r="B367">
         <v>13</v>
       </c>
-      <c r="G367" t="s">
-        <v>926</v>
+      <c r="G367" s="7">
+        <v>20001013</v>
       </c>
       <c r="H367" t="s">
         <v>920</v>
@@ -22838,8 +22413,8 @@
       <c r="B368">
         <v>9</v>
       </c>
-      <c r="G368" t="s">
-        <v>927</v>
+      <c r="G368" s="7">
+        <v>2000129</v>
       </c>
       <c r="H368" t="s">
         <v>920</v>
@@ -22855,8 +22430,8 @@
       <c r="B369">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>928</v>
+      <c r="G369" s="7">
+        <v>20001311</v>
       </c>
       <c r="H369" t="s">
         <v>920</v>
@@ -22872,8 +22447,8 @@
       <c r="B370">
         <v>8</v>
       </c>
-      <c r="G370" t="s">
-        <v>929</v>
+      <c r="G370" s="7">
+        <v>2000148</v>
       </c>
       <c r="H370" t="s">
         <v>920</v>
@@ -22889,8 +22464,8 @@
       <c r="B371">
         <v>9</v>
       </c>
-      <c r="G371" t="s">
-        <v>930</v>
+      <c r="G371" s="7">
+        <v>2000149</v>
       </c>
       <c r="H371" t="s">
         <v>920</v>
@@ -22906,8 +22481,8 @@
       <c r="B372">
         <v>12</v>
       </c>
-      <c r="G372" t="s">
-        <v>931</v>
+      <c r="G372" s="7">
+        <v>20001712</v>
       </c>
       <c r="H372" t="s">
         <v>920</v>
@@ -22923,8 +22498,8 @@
       <c r="B373">
         <v>12</v>
       </c>
-      <c r="G373" t="s">
-        <v>932</v>
+      <c r="G373" s="7">
+        <v>20001912</v>
       </c>
       <c r="H373" t="s">
         <v>920</v>
@@ -22940,8 +22515,8 @@
       <c r="B374">
         <v>15</v>
       </c>
-      <c r="G374" t="s">
-        <v>933</v>
+      <c r="G374" s="7">
+        <v>20002115</v>
       </c>
       <c r="H374" t="s">
         <v>920</v>
@@ -22957,8 +22532,8 @@
       <c r="B375">
         <v>12</v>
       </c>
-      <c r="G375" t="s">
-        <v>934</v>
+      <c r="G375" s="7">
+        <v>20002212</v>
       </c>
       <c r="H375" t="s">
         <v>920</v>
@@ -22974,8 +22549,8 @@
       <c r="B376">
         <v>3</v>
       </c>
-      <c r="G376" t="s">
-        <v>935</v>
+      <c r="G376" s="7">
+        <v>2000233</v>
       </c>
       <c r="H376" t="s">
         <v>920</v>
@@ -22991,8 +22566,8 @@
       <c r="B377">
         <v>9</v>
       </c>
-      <c r="G377" t="s">
-        <v>936</v>
+      <c r="G377" s="7">
+        <v>2000249</v>
       </c>
       <c r="H377" t="s">
         <v>920</v>
@@ -23008,8 +22583,8 @@
       <c r="B378">
         <v>14</v>
       </c>
-      <c r="G378" t="s">
-        <v>937</v>
+      <c r="G378" s="7">
+        <v>20002414</v>
       </c>
       <c r="H378" t="s">
         <v>920</v>
@@ -23025,8 +22600,8 @@
       <c r="B379">
         <v>1</v>
       </c>
-      <c r="G379" t="s">
-        <v>938</v>
+      <c r="G379" s="7">
+        <v>2000251</v>
       </c>
       <c r="H379" t="s">
         <v>920</v>
@@ -23042,8 +22617,8 @@
       <c r="B380">
         <v>15</v>
       </c>
-      <c r="G380" t="s">
-        <v>939</v>
+      <c r="G380" s="7">
+        <v>20002615</v>
       </c>
       <c r="H380" t="s">
         <v>920</v>
@@ -23059,8 +22634,8 @@
       <c r="B381">
         <v>14</v>
       </c>
-      <c r="G381" t="s">
-        <v>940</v>
+      <c r="G381" s="7">
+        <v>20002714</v>
       </c>
       <c r="H381" t="s">
         <v>920</v>
@@ -23076,8 +22651,8 @@
       <c r="B382">
         <v>12</v>
       </c>
-      <c r="G382" t="s">
-        <v>941</v>
+      <c r="G382" s="7">
+        <v>20002812</v>
       </c>
       <c r="H382" t="s">
         <v>920</v>
@@ -23093,8 +22668,8 @@
       <c r="B383">
         <v>10</v>
       </c>
-      <c r="G383" t="s">
-        <v>942</v>
+      <c r="G383" s="7">
+        <v>20002910</v>
       </c>
       <c r="H383" t="s">
         <v>920</v>
@@ -23110,8 +22685,8 @@
       <c r="B384">
         <v>5</v>
       </c>
-      <c r="G384" t="s">
-        <v>943</v>
+      <c r="G384" s="7">
+        <v>2000305</v>
       </c>
       <c r="H384" t="s">
         <v>920</v>
@@ -23127,8 +22702,8 @@
       <c r="B385">
         <v>8</v>
       </c>
-      <c r="G385" t="s">
-        <v>944</v>
+      <c r="G385" s="7">
+        <v>2000318</v>
       </c>
       <c r="H385" t="s">
         <v>920</v>
@@ -23144,8 +22719,8 @@
       <c r="B386">
         <v>15</v>
       </c>
-      <c r="G386" t="s">
-        <v>945</v>
+      <c r="G386" s="7">
+        <v>20003215</v>
       </c>
       <c r="H386" t="s">
         <v>920</v>
@@ -23161,8 +22736,8 @@
       <c r="B387">
         <v>14</v>
       </c>
-      <c r="G387" t="s">
-        <v>946</v>
+      <c r="G387" s="7">
+        <v>20003314</v>
       </c>
       <c r="H387" t="s">
         <v>920</v>
@@ -23178,8 +22753,8 @@
       <c r="B388">
         <v>3</v>
       </c>
-      <c r="G388" t="s">
-        <v>947</v>
+      <c r="G388" s="7">
+        <v>2000343</v>
       </c>
       <c r="H388" t="s">
         <v>920</v>
@@ -23195,8 +22770,8 @@
       <c r="B389">
         <v>2</v>
       </c>
-      <c r="G389" t="s">
-        <v>948</v>
+      <c r="G389" s="7">
+        <v>2000352</v>
       </c>
       <c r="H389" t="s">
         <v>920</v>
@@ -23212,8 +22787,8 @@
       <c r="B390">
         <v>2</v>
       </c>
-      <c r="G390" t="s">
-        <v>949</v>
+      <c r="G390" s="7">
+        <v>2000362</v>
       </c>
       <c r="H390" t="s">
         <v>920</v>
@@ -23229,8 +22804,8 @@
       <c r="B391">
         <v>12</v>
       </c>
-      <c r="G391" t="s">
-        <v>950</v>
+      <c r="G391" s="7">
+        <v>20003712</v>
       </c>
       <c r="H391" t="s">
         <v>920</v>
@@ -23246,8 +22821,8 @@
       <c r="B392">
         <v>2</v>
       </c>
-      <c r="G392" t="s">
-        <v>951</v>
+      <c r="G392" s="7">
+        <v>2000382</v>
       </c>
       <c r="H392" t="s">
         <v>920</v>
@@ -23263,8 +22838,8 @@
       <c r="B393">
         <v>3</v>
       </c>
-      <c r="G393" t="s">
-        <v>952</v>
+      <c r="G393" s="7">
+        <v>2000383</v>
       </c>
       <c r="H393" t="s">
         <v>920</v>
@@ -23280,8 +22855,8 @@
       <c r="B394">
         <v>10</v>
       </c>
-      <c r="G394" t="s">
-        <v>953</v>
+      <c r="G394" s="7">
+        <v>20003910</v>
       </c>
       <c r="H394" t="s">
         <v>920</v>
@@ -23297,8 +22872,8 @@
       <c r="B395">
         <v>14</v>
       </c>
-      <c r="G395" t="s">
-        <v>954</v>
+      <c r="G395" s="7">
+        <v>20003914</v>
       </c>
       <c r="H395" t="s">
         <v>920</v>
@@ -23314,8 +22889,8 @@
       <c r="B396">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>955</v>
+      <c r="G396" s="7">
+        <v>20004011</v>
       </c>
       <c r="H396" t="s">
         <v>920</v>
@@ -23331,8 +22906,8 @@
       <c r="B397">
         <v>8</v>
       </c>
-      <c r="G397" t="s">
-        <v>956</v>
+      <c r="G397" s="7">
+        <v>2000418</v>
       </c>
       <c r="H397" t="s">
         <v>920</v>
@@ -23348,8 +22923,8 @@
       <c r="B398">
         <v>9</v>
       </c>
-      <c r="G398" t="s">
-        <v>957</v>
+      <c r="G398" s="7">
+        <v>2000419</v>
       </c>
       <c r="H398" t="s">
         <v>920</v>
@@ -23365,8 +22940,8 @@
       <c r="B399">
         <v>7</v>
       </c>
-      <c r="G399" t="s">
-        <v>958</v>
+      <c r="G399" s="7">
+        <v>2000427</v>
       </c>
       <c r="H399" t="s">
         <v>920</v>
@@ -23382,8 +22957,8 @@
       <c r="B400">
         <v>6</v>
       </c>
-      <c r="G400" t="s">
-        <v>959</v>
+      <c r="G400" s="7">
+        <v>2000436</v>
       </c>
       <c r="H400" t="s">
         <v>920</v>
@@ -23399,8 +22974,8 @@
       <c r="B401">
         <v>13</v>
       </c>
-      <c r="G401" t="s">
-        <v>960</v>
+      <c r="G401" s="7">
+        <v>20004313</v>
       </c>
       <c r="H401" t="s">
         <v>920</v>
@@ -23416,8 +22991,8 @@
       <c r="B402">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>961</v>
+      <c r="G402" s="7">
+        <v>20004411</v>
       </c>
       <c r="H402" t="s">
         <v>920</v>
@@ -23433,8 +23008,8 @@
       <c r="B403">
         <v>9</v>
       </c>
-      <c r="G403" t="s">
-        <v>962</v>
+      <c r="G403" s="7">
+        <v>2000459</v>
       </c>
       <c r="H403" t="s">
         <v>920</v>
@@ -23450,8 +23025,8 @@
       <c r="B404">
         <v>7</v>
       </c>
-      <c r="G404" t="s">
-        <v>963</v>
+      <c r="G404" s="7">
+        <v>2000467</v>
       </c>
       <c r="H404" t="s">
         <v>920</v>
@@ -23467,8 +23042,8 @@
       <c r="B405">
         <v>8</v>
       </c>
-      <c r="G405" t="s">
-        <v>964</v>
+      <c r="G405" s="7">
+        <v>2000478</v>
       </c>
       <c r="H405" t="s">
         <v>920</v>
@@ -23484,8 +23059,8 @@
       <c r="B406">
         <v>9</v>
       </c>
-      <c r="G406" t="s">
-        <v>965</v>
+      <c r="G406" s="7">
+        <v>2000489</v>
       </c>
       <c r="H406" t="s">
         <v>920</v>
@@ -23501,8 +23076,8 @@
       <c r="B407">
         <v>11</v>
       </c>
-      <c r="G407" t="s">
-        <v>966</v>
+      <c r="G407" s="7">
+        <v>20004911</v>
       </c>
       <c r="H407" t="s">
         <v>920</v>
@@ -23518,8 +23093,8 @@
       <c r="B408">
         <v>10</v>
       </c>
-      <c r="G408" t="s">
-        <v>967</v>
+      <c r="G408" s="7">
+        <v>20005110</v>
       </c>
       <c r="H408" t="s">
         <v>920</v>
@@ -23535,8 +23110,8 @@
       <c r="B409">
         <v>14</v>
       </c>
-      <c r="G409" t="s">
-        <v>968</v>
+      <c r="G409" s="7">
+        <v>20005214</v>
       </c>
       <c r="H409" t="s">
         <v>920</v>
@@ -23552,8 +23127,8 @@
       <c r="B410">
         <v>8</v>
       </c>
-      <c r="G410" t="s">
-        <v>969</v>
+      <c r="G410" s="7">
+        <v>2000548</v>
       </c>
       <c r="H410" t="s">
         <v>920</v>
@@ -23569,8 +23144,8 @@
       <c r="B411">
         <v>8</v>
       </c>
-      <c r="G411" t="s">
-        <v>970</v>
+      <c r="G411" s="7">
+        <v>2000558</v>
       </c>
       <c r="H411" t="s">
         <v>920</v>
@@ -23586,8 +23161,8 @@
       <c r="B412">
         <v>16</v>
       </c>
-      <c r="G412" t="s">
-        <v>971</v>
+      <c r="G412" s="7">
+        <v>20005516</v>
       </c>
       <c r="H412" t="s">
         <v>920</v>
@@ -23603,8 +23178,8 @@
       <c r="B413">
         <v>8</v>
       </c>
-      <c r="G413" t="s">
-        <v>972</v>
+      <c r="G413" s="7">
+        <v>2000578</v>
       </c>
       <c r="H413" t="s">
         <v>920</v>
@@ -23620,8 +23195,8 @@
       <c r="B414">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>973</v>
+      <c r="G414" s="7">
+        <v>20005811</v>
       </c>
       <c r="H414" t="s">
         <v>920</v>
@@ -23637,8 +23212,8 @@
       <c r="B415">
         <v>2</v>
       </c>
-      <c r="G415" t="s">
-        <v>974</v>
+      <c r="G415" s="7">
+        <v>2000592</v>
       </c>
       <c r="H415" t="s">
         <v>920</v>
@@ -23654,8 +23229,8 @@
       <c r="B416">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>975</v>
+      <c r="G416" s="7">
+        <v>20006011</v>
       </c>
       <c r="H416" t="s">
         <v>920</v>
@@ -23671,8 +23246,8 @@
       <c r="B417">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>976</v>
+      <c r="G417" s="7">
+        <v>20006111</v>
       </c>
       <c r="H417" t="s">
         <v>920</v>
@@ -23688,8 +23263,8 @@
       <c r="B418">
         <v>5</v>
       </c>
-      <c r="G418" t="s">
-        <v>977</v>
+      <c r="G418" s="7">
+        <v>2000625</v>
       </c>
       <c r="H418" t="s">
         <v>920</v>
@@ -23705,8 +23280,8 @@
       <c r="B419">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>978</v>
+      <c r="G419" s="7">
+        <v>20006311</v>
       </c>
       <c r="H419" t="s">
         <v>920</v>
@@ -23722,8 +23297,8 @@
       <c r="B420">
         <v>12</v>
       </c>
-      <c r="G420" t="s">
-        <v>979</v>
+      <c r="G420" s="7">
+        <v>20006612</v>
       </c>
       <c r="H420" t="s">
         <v>920</v>
@@ -23739,8 +23314,8 @@
       <c r="B421">
         <v>1</v>
       </c>
-      <c r="G421" t="s">
-        <v>980</v>
+      <c r="G421" s="7">
+        <v>2000671</v>
       </c>
       <c r="H421" t="s">
         <v>920</v>
@@ -23756,8 +23331,8 @@
       <c r="B422">
         <v>4</v>
       </c>
-      <c r="G422" t="s">
-        <v>981</v>
+      <c r="G422" s="7">
+        <v>2000694</v>
       </c>
       <c r="H422" t="s">
         <v>920</v>
@@ -23773,8 +23348,8 @@
       <c r="B423">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>982</v>
+      <c r="G423" s="7">
+        <v>20007011</v>
       </c>
       <c r="H423" t="s">
         <v>920</v>
@@ -23790,8 +23365,8 @@
       <c r="B424">
         <v>1</v>
       </c>
-      <c r="G424" t="s">
-        <v>983</v>
+      <c r="G424" s="7">
+        <v>2000711</v>
       </c>
       <c r="H424" t="s">
         <v>920</v>
@@ -23807,8 +23382,8 @@
       <c r="B425">
         <v>15</v>
       </c>
-      <c r="G425" t="s">
-        <v>984</v>
+      <c r="G425" s="7">
+        <v>20007115</v>
       </c>
       <c r="H425" t="s">
         <v>920</v>
@@ -23824,8 +23399,8 @@
       <c r="B426">
         <v>10</v>
       </c>
-      <c r="G426" t="s">
-        <v>985</v>
+      <c r="G426" s="7">
+        <v>20007210</v>
       </c>
       <c r="H426" t="s">
         <v>920</v>
@@ -23841,8 +23416,8 @@
       <c r="B427">
         <v>2</v>
       </c>
-      <c r="G427" t="s">
-        <v>986</v>
+      <c r="G427" s="7">
+        <v>2000742</v>
       </c>
       <c r="H427" t="s">
         <v>920</v>
@@ -23858,8 +23433,8 @@
       <c r="B428">
         <v>16</v>
       </c>
-      <c r="G428" t="s">
-        <v>987</v>
+      <c r="G428" s="7">
+        <v>20007516</v>
       </c>
       <c r="H428" t="s">
         <v>920</v>
@@ -23875,8 +23450,8 @@
       <c r="B429">
         <v>16</v>
       </c>
-      <c r="G429" t="s">
-        <v>988</v>
+      <c r="G429" s="7">
+        <v>20007616</v>
       </c>
       <c r="H429" t="s">
         <v>920</v>
@@ -23892,8 +23467,8 @@
       <c r="B430">
         <v>8</v>
       </c>
-      <c r="G430" t="s">
-        <v>989</v>
+      <c r="G430" s="7">
+        <v>2000788</v>
       </c>
       <c r="H430" t="s">
         <v>920</v>
@@ -23909,8 +23484,8 @@
       <c r="B431">
         <v>5</v>
       </c>
-      <c r="G431" t="s">
-        <v>990</v>
+      <c r="G431" s="7">
+        <v>2000795</v>
       </c>
       <c r="H431" t="s">
         <v>920</v>
@@ -23926,8 +23501,8 @@
       <c r="B432">
         <v>6</v>
       </c>
-      <c r="G432" t="s">
-        <v>991</v>
+      <c r="G432" s="7">
+        <v>2000806</v>
       </c>
       <c r="H432" t="s">
         <v>920</v>
@@ -23943,8 +23518,8 @@
       <c r="B433">
         <v>6</v>
       </c>
-      <c r="G433" t="s">
-        <v>992</v>
+      <c r="G433" s="7">
+        <v>2000816</v>
       </c>
       <c r="H433" t="s">
         <v>920</v>
@@ -23960,8 +23535,8 @@
       <c r="B434">
         <v>13</v>
       </c>
-      <c r="G434" t="s">
-        <v>993</v>
+      <c r="G434" s="7">
+        <v>20008113</v>
       </c>
       <c r="H434" t="s">
         <v>920</v>
@@ -23977,8 +23552,8 @@
       <c r="B435">
         <v>12</v>
       </c>
-      <c r="G435" t="s">
-        <v>994</v>
+      <c r="G435" s="7">
+        <v>20008212</v>
       </c>
       <c r="H435" t="s">
         <v>920</v>
@@ -23994,8 +23569,8 @@
       <c r="B436">
         <v>8</v>
       </c>
-      <c r="G436" t="s">
-        <v>995</v>
+      <c r="G436" s="7">
+        <v>2000838</v>
       </c>
       <c r="H436" t="s">
         <v>920</v>
@@ -24011,8 +23586,8 @@
       <c r="B437">
         <v>9</v>
       </c>
-      <c r="G437" t="s">
-        <v>996</v>
+      <c r="G437" s="7">
+        <v>2000839</v>
       </c>
       <c r="H437" t="s">
         <v>920</v>
@@ -24028,8 +23603,8 @@
       <c r="B438">
         <v>8</v>
       </c>
-      <c r="G438" t="s">
-        <v>997</v>
+      <c r="G438" s="7">
+        <v>2000848</v>
       </c>
       <c r="H438" t="s">
         <v>920</v>
@@ -24045,8 +23620,8 @@
       <c r="B439">
         <v>9</v>
       </c>
-      <c r="G439" t="s">
-        <v>998</v>
+      <c r="G439" s="7">
+        <v>2000849</v>
       </c>
       <c r="H439" t="s">
         <v>920</v>
@@ -24062,8 +23637,8 @@
       <c r="B440">
         <v>8</v>
       </c>
-      <c r="G440" t="s">
-        <v>999</v>
+      <c r="G440" s="7">
+        <v>2000858</v>
       </c>
       <c r="H440" t="s">
         <v>920</v>
@@ -24079,8 +23654,8 @@
       <c r="B441">
         <v>9</v>
       </c>
-      <c r="G441" t="s">
-        <v>1000</v>
+      <c r="G441" s="7">
+        <v>2000859</v>
       </c>
       <c r="H441" t="s">
         <v>920</v>
@@ -24096,8 +23671,8 @@
       <c r="B442">
         <v>6</v>
       </c>
-      <c r="G442" t="s">
-        <v>1001</v>
+      <c r="G442" s="7">
+        <v>2000876</v>
       </c>
       <c r="H442" t="s">
         <v>920</v>
@@ -24113,8 +23688,8 @@
       <c r="B443">
         <v>13</v>
       </c>
-      <c r="G443" t="s">
-        <v>1002</v>
+      <c r="G443" s="7">
+        <v>20008713</v>
       </c>
       <c r="H443" t="s">
         <v>920</v>
@@ -24130,8 +23705,8 @@
       <c r="B444">
         <v>1</v>
       </c>
-      <c r="G444" t="s">
-        <v>1003</v>
+      <c r="G444" s="7">
+        <v>2000881</v>
       </c>
       <c r="H444" t="s">
         <v>920</v>
@@ -24147,8 +23722,8 @@
       <c r="B445">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>1004</v>
+      <c r="G445" s="7">
+        <v>20009011</v>
       </c>
       <c r="H445" t="s">
         <v>920</v>
@@ -24164,8 +23739,8 @@
       <c r="B446">
         <v>9</v>
       </c>
-      <c r="G446" t="s">
-        <v>1005</v>
+      <c r="G446" s="7">
+        <v>2000919</v>
       </c>
       <c r="H446" t="s">
         <v>920</v>
@@ -24181,8 +23756,8 @@
       <c r="B447">
         <v>6</v>
       </c>
-      <c r="G447" t="s">
-        <v>1006</v>
+      <c r="G447" s="7">
+        <v>2000966</v>
       </c>
       <c r="H447" t="s">
         <v>920</v>
@@ -24198,8 +23773,8 @@
       <c r="B448">
         <v>7</v>
       </c>
-      <c r="G448" t="s">
-        <v>1007</v>
+      <c r="G448" s="7">
+        <v>2000967</v>
       </c>
       <c r="H448" t="s">
         <v>920</v>
@@ -24215,8 +23790,8 @@
       <c r="B449">
         <v>1</v>
       </c>
-      <c r="G449" t="s">
-        <v>1008</v>
+      <c r="G449" s="7">
+        <v>2000981</v>
       </c>
       <c r="H449" t="s">
         <v>920</v>
@@ -24232,8 +23807,8 @@
       <c r="B450">
         <v>2</v>
       </c>
-      <c r="G450" t="s">
-        <v>1009</v>
+      <c r="G450" s="7">
+        <v>2000992</v>
       </c>
       <c r="H450" t="s">
         <v>920</v>
@@ -24249,8 +23824,8 @@
       <c r="B451">
         <v>8</v>
       </c>
-      <c r="G451" t="s">
-        <v>1010</v>
+      <c r="G451" s="7">
+        <v>20001008</v>
       </c>
       <c r="H451" t="s">
         <v>920</v>
@@ -24266,8 +23841,8 @@
       <c r="B452">
         <v>10</v>
       </c>
-      <c r="G452" t="s">
-        <v>1011</v>
+      <c r="G452" s="7">
+        <v>200010210</v>
       </c>
       <c r="H452" t="s">
         <v>920</v>
@@ -24283,8 +23858,8 @@
       <c r="B453">
         <v>11</v>
       </c>
-      <c r="G453" t="s">
-        <v>1012</v>
+      <c r="G453" s="7">
+        <v>200010311</v>
       </c>
       <c r="H453" t="s">
         <v>920</v>
@@ -24300,8 +23875,8 @@
       <c r="B454">
         <v>7</v>
       </c>
-      <c r="G454" t="s">
-        <v>1013</v>
+      <c r="G454" s="7">
+        <v>20001057</v>
       </c>
       <c r="H454" t="s">
         <v>920</v>
@@ -24317,8 +23892,8 @@
       <c r="B455">
         <v>2</v>
       </c>
-      <c r="G455" t="s">
-        <v>1014</v>
+      <c r="G455" s="7">
+        <v>20001062</v>
       </c>
       <c r="H455" t="s">
         <v>920</v>
@@ -24334,8 +23909,8 @@
       <c r="B456">
         <v>10</v>
       </c>
-      <c r="G456" t="s">
-        <v>1015</v>
+      <c r="G456" s="7">
+        <v>200010910</v>
       </c>
       <c r="H456" t="s">
         <v>920</v>
@@ -24351,8 +23926,8 @@
       <c r="B457">
         <v>5</v>
       </c>
-      <c r="G457" t="s">
-        <v>1016</v>
+      <c r="G457" s="7">
+        <v>20001115</v>
       </c>
       <c r="H457" t="s">
         <v>920</v>
@@ -24368,8 +23943,8 @@
       <c r="B458">
         <v>13</v>
       </c>
-      <c r="G458" t="s">
-        <v>1017</v>
+      <c r="G458" s="7">
+        <v>200011113</v>
       </c>
       <c r="H458" t="s">
         <v>920</v>
@@ -24385,8 +23960,8 @@
       <c r="B459">
         <v>13</v>
       </c>
-      <c r="G459" t="s">
-        <v>1018</v>
+      <c r="G459" s="7">
+        <v>200011213</v>
       </c>
       <c r="H459" t="s">
         <v>920</v>
@@ -24402,8 +23977,8 @@
       <c r="B460">
         <v>5</v>
       </c>
-      <c r="G460" t="s">
-        <v>1019</v>
+      <c r="G460" s="7">
+        <v>20001135</v>
       </c>
       <c r="H460" t="s">
         <v>920</v>
@@ -24419,8 +23994,8 @@
       <c r="B461">
         <v>5</v>
       </c>
-      <c r="G461" t="s">
-        <v>1020</v>
+      <c r="G461" s="7">
+        <v>20001155</v>
       </c>
       <c r="H461" t="s">
         <v>920</v>
@@ -24436,8 +24011,8 @@
       <c r="B462">
         <v>13</v>
       </c>
-      <c r="G462" t="s">
-        <v>1021</v>
+      <c r="G462" s="7">
+        <v>200011513</v>
       </c>
       <c r="H462" t="s">
         <v>920</v>
@@ -24453,8 +24028,8 @@
       <c r="B463">
         <v>13</v>
       </c>
-      <c r="G463" t="s">
-        <v>1022</v>
+      <c r="G463" s="7">
+        <v>200011613</v>
       </c>
       <c r="H463" t="s">
         <v>920</v>
@@ -24470,8 +24045,8 @@
       <c r="B464">
         <v>13</v>
       </c>
-      <c r="G464" t="s">
-        <v>1023</v>
+      <c r="G464" s="7">
+        <v>200012013</v>
       </c>
       <c r="H464" t="s">
         <v>920</v>
@@ -24487,8 +24062,8 @@
       <c r="B465">
         <v>13</v>
       </c>
-      <c r="G465" t="s">
-        <v>1024</v>
+      <c r="G465" s="7">
+        <v>200012213</v>
       </c>
       <c r="H465" t="s">
         <v>920</v>
@@ -24504,8 +24079,8 @@
       <c r="B466">
         <v>13</v>
       </c>
-      <c r="G466" t="s">
-        <v>1025</v>
+      <c r="G466" s="7">
+        <v>200012713</v>
       </c>
       <c r="H466" t="s">
         <v>920</v>
@@ -24521,8 +24096,8 @@
       <c r="B467">
         <v>12</v>
       </c>
-      <c r="G467" t="s">
-        <v>1026</v>
+      <c r="G467" s="7">
+        <v>200012912</v>
       </c>
       <c r="H467" t="s">
         <v>920</v>
@@ -24538,8 +24113,8 @@
       <c r="B468">
         <v>10</v>
       </c>
-      <c r="G468" t="s">
-        <v>1027</v>
+      <c r="G468" s="7">
+        <v>200013110</v>
       </c>
       <c r="H468" t="s">
         <v>920</v>
@@ -24555,8 +24130,8 @@
       <c r="B469">
         <v>3</v>
       </c>
-      <c r="G469" t="s">
-        <v>1028</v>
+      <c r="G469" s="7">
+        <v>20001333</v>
       </c>
       <c r="H469" t="s">
         <v>920</v>
@@ -24572,8 +24147,8 @@
       <c r="B470">
         <v>3</v>
       </c>
-      <c r="G470" t="s">
-        <v>1029</v>
+      <c r="G470" s="7">
+        <v>20001353</v>
       </c>
       <c r="H470" t="s">
         <v>920</v>
@@ -24589,8 +24164,8 @@
       <c r="B471">
         <v>4</v>
       </c>
-      <c r="G471" t="s">
-        <v>1030</v>
+      <c r="G471" s="7">
+        <v>20001364</v>
       </c>
       <c r="H471" t="s">
         <v>920</v>
@@ -24606,8 +24181,8 @@
       <c r="B472">
         <v>12</v>
       </c>
-      <c r="G472" t="s">
-        <v>1031</v>
+      <c r="G472" s="7">
+        <v>200013712</v>
       </c>
       <c r="H472" t="s">
         <v>920</v>
@@ -24623,8 +24198,8 @@
       <c r="B473">
         <v>11</v>
       </c>
-      <c r="G473" t="s">
-        <v>1032</v>
+      <c r="G473" s="7">
+        <v>200013811</v>
       </c>
       <c r="H473" t="s">
         <v>920</v>
@@ -24640,8 +24215,8 @@
       <c r="B474">
         <v>7</v>
       </c>
-      <c r="G474" t="s">
-        <v>1033</v>
+      <c r="G474" s="7">
+        <v>20001397</v>
       </c>
       <c r="H474" t="s">
         <v>920</v>
@@ -24657,8 +24232,8 @@
       <c r="B475">
         <v>6</v>
       </c>
-      <c r="G475" t="s">
-        <v>1034</v>
+      <c r="G475" s="7">
+        <v>20001406</v>
       </c>
       <c r="H475" t="s">
         <v>920</v>
@@ -24674,8 +24249,8 @@
       <c r="B476">
         <v>13</v>
       </c>
-      <c r="G476" t="s">
-        <v>1035</v>
+      <c r="G476" s="7">
+        <v>200014013</v>
       </c>
       <c r="H476" t="s">
         <v>920</v>
@@ -24691,8 +24266,8 @@
       <c r="B477">
         <v>4</v>
       </c>
-      <c r="G477" t="s">
-        <v>1036</v>
+      <c r="G477" s="7">
+        <v>20001424</v>
       </c>
       <c r="H477" t="s">
         <v>920</v>
@@ -24708,8 +24283,8 @@
       <c r="B478">
         <v>13</v>
       </c>
-      <c r="G478" t="s">
-        <v>1037</v>
+      <c r="G478" s="7">
+        <v>200014313</v>
       </c>
       <c r="H478" t="s">
         <v>920</v>
@@ -24725,8 +24300,8 @@
       <c r="B479">
         <v>4</v>
       </c>
-      <c r="G479" t="s">
-        <v>1038</v>
+      <c r="G479" s="7">
+        <v>20001464</v>
       </c>
       <c r="H479" t="s">
         <v>920</v>
@@ -24742,8 +24317,8 @@
       <c r="B480">
         <v>6</v>
       </c>
-      <c r="G480" t="s">
-        <v>1039</v>
+      <c r="G480" s="7">
+        <v>20001506</v>
       </c>
       <c r="H480" t="s">
         <v>920</v>
@@ -24759,8 +24334,8 @@
       <c r="B481">
         <v>13</v>
       </c>
-      <c r="G481" t="s">
-        <v>1040</v>
+      <c r="G481" s="7">
+        <v>200015013</v>
       </c>
       <c r="H481" t="s">
         <v>920</v>
@@ -24776,8 +24351,8 @@
       <c r="B482">
         <v>4</v>
       </c>
-      <c r="G482" t="s">
-        <v>1041</v>
+      <c r="G482" s="7">
+        <v>20001514</v>
       </c>
       <c r="H482" t="s">
         <v>920</v>
@@ -24793,8 +24368,8 @@
       <c r="B483">
         <v>12</v>
       </c>
-      <c r="G483" t="s">
-        <v>1042</v>
+      <c r="G483" s="7">
+        <v>200015312</v>
       </c>
       <c r="H483" t="s">
         <v>920</v>
@@ -24810,8 +24385,8 @@
       <c r="B484">
         <v>11</v>
       </c>
-      <c r="G484" t="s">
-        <v>1043</v>
+      <c r="G484" s="7">
+        <v>200015411</v>
       </c>
       <c r="H484" t="s">
         <v>920</v>
@@ -24827,8 +24402,8 @@
       <c r="B485">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>1044</v>
+      <c r="G485" s="7">
+        <v>200015511</v>
       </c>
       <c r="H485" t="s">
         <v>920</v>
@@ -24844,8 +24419,8 @@
       <c r="B486">
         <v>11</v>
       </c>
-      <c r="G486" t="s">
-        <v>1045</v>
+      <c r="G486" s="7">
+        <v>200015611</v>
       </c>
       <c r="H486" t="s">
         <v>920</v>
@@ -24861,8 +24436,8 @@
       <c r="B487">
         <v>2</v>
       </c>
-      <c r="G487" t="s">
-        <v>1046</v>
+      <c r="G487" s="7">
+        <v>20001582</v>
       </c>
       <c r="H487" t="s">
         <v>920</v>
@@ -24878,8 +24453,8 @@
       <c r="B488">
         <v>5</v>
       </c>
-      <c r="G488" t="s">
-        <v>1047</v>
+      <c r="G488" s="7">
+        <v>20001605</v>
       </c>
       <c r="H488" t="s">
         <v>920</v>
@@ -24895,8 +24470,8 @@
       <c r="B489">
         <v>12</v>
       </c>
-      <c r="G489" t="s">
-        <v>1048</v>
+      <c r="G489" s="7">
+        <v>200016212</v>
       </c>
       <c r="H489" t="s">
         <v>920</v>
@@ -24912,8 +24487,8 @@
       <c r="B490">
         <v>10</v>
       </c>
-      <c r="G490" t="s">
-        <v>1049</v>
+      <c r="G490" s="7">
+        <v>200016510</v>
       </c>
       <c r="H490" t="s">
         <v>920</v>
@@ -24929,8 +24504,8 @@
       <c r="B491">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>1050</v>
+      <c r="G491" s="7">
+        <v>200016511</v>
       </c>
       <c r="H491" t="s">
         <v>920</v>
@@ -24946,8 +24521,8 @@
       <c r="B492">
         <v>12</v>
       </c>
-      <c r="G492" t="s">
-        <v>1051</v>
+      <c r="G492" s="7">
+        <v>200016612</v>
       </c>
       <c r="H492" t="s">
         <v>920</v>
@@ -24963,8 +24538,8 @@
       <c r="B493">
         <v>10</v>
       </c>
-      <c r="G493" t="s">
-        <v>1052</v>
+      <c r="G493" s="7">
+        <v>200016710</v>
       </c>
       <c r="H493" t="s">
         <v>920</v>
@@ -24980,8 +24555,8 @@
       <c r="B494">
         <v>10</v>
       </c>
-      <c r="G494" t="s">
-        <v>1053</v>
+      <c r="G494" s="7">
+        <v>200016810</v>
       </c>
       <c r="H494" t="s">
         <v>920</v>
@@ -24997,8 +24572,8 @@
       <c r="B495">
         <v>10</v>
       </c>
-      <c r="G495" t="s">
-        <v>1054</v>
+      <c r="G495" s="7">
+        <v>200016910</v>
       </c>
       <c r="H495" t="s">
         <v>920</v>
@@ -25014,8 +24589,8 @@
       <c r="B496">
         <v>11</v>
       </c>
-      <c r="G496" t="s">
-        <v>1055</v>
+      <c r="G496" s="7">
+        <v>200016911</v>
       </c>
       <c r="H496" t="s">
         <v>920</v>
@@ -25031,8 +24606,8 @@
       <c r="B497">
         <v>11</v>
       </c>
-      <c r="G497" t="s">
-        <v>1056</v>
+      <c r="G497" s="7">
+        <v>200017011</v>
       </c>
       <c r="H497" t="s">
         <v>920</v>
@@ -25048,8 +24623,8 @@
       <c r="B498">
         <v>11</v>
       </c>
-      <c r="G498" t="s">
-        <v>1057</v>
+      <c r="G498" s="7">
+        <v>200017111</v>
       </c>
       <c r="H498" t="s">
         <v>920</v>
@@ -25065,8 +24640,8 @@
       <c r="B499">
         <v>10</v>
       </c>
-      <c r="G499" t="s">
-        <v>1058</v>
+      <c r="G499" s="7">
+        <v>200017210</v>
       </c>
       <c r="H499" t="s">
         <v>920</v>
@@ -25082,8 +24657,8 @@
       <c r="B500">
         <v>11</v>
       </c>
-      <c r="G500" t="s">
-        <v>1059</v>
+      <c r="G500" s="7">
+        <v>200017311</v>
       </c>
       <c r="H500" t="s">
         <v>920</v>
@@ -25099,8 +24674,8 @@
       <c r="B501">
         <v>10</v>
       </c>
-      <c r="G501" t="s">
-        <v>1060</v>
+      <c r="G501" s="7">
+        <v>200017410</v>
       </c>
       <c r="H501" t="s">
         <v>920</v>
@@ -25116,8 +24691,8 @@
       <c r="B502">
         <v>11</v>
       </c>
-      <c r="G502" t="s">
-        <v>1061</v>
+      <c r="G502" s="7">
+        <v>200017711</v>
       </c>
       <c r="H502" t="s">
         <v>920</v>
@@ -25133,8 +24708,8 @@
       <c r="B503">
         <v>12</v>
       </c>
-      <c r="G503" t="s">
-        <v>1062</v>
+      <c r="G503" s="7">
+        <v>200017712</v>
       </c>
       <c r="H503" t="s">
         <v>920</v>
@@ -25150,8 +24725,8 @@
       <c r="B504">
         <v>12</v>
       </c>
-      <c r="G504" t="s">
-        <v>1063</v>
+      <c r="G504" s="7">
+        <v>200017812</v>
       </c>
       <c r="H504" t="s">
         <v>920</v>
@@ -25167,14 +24742,3569 @@
       <c r="B505">
         <v>12</v>
       </c>
-      <c r="G505" t="s">
-        <v>1064</v>
+      <c r="G505" s="7">
+        <v>200017912</v>
       </c>
       <c r="H505" t="s">
         <v>920</v>
       </c>
       <c r="I505" t="s">
         <v>915</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B506">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000000</v>
+      </c>
+      <c r="G506">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B507">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000001</v>
+      </c>
+      <c r="G507">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B508">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000002</v>
+      </c>
+      <c r="G508">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B509">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000003</v>
+      </c>
+      <c r="G509">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B510">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000004</v>
+      </c>
+      <c r="G510">
+        <v>1000004</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B511">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000005</v>
+      </c>
+      <c r="G511">
+        <v>1000005</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B512">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000006</v>
+      </c>
+      <c r="G512">
+        <v>1000006</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B513">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000007</v>
+      </c>
+      <c r="G513">
+        <v>1000007</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B514">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000008</v>
+      </c>
+      <c r="G514">
+        <v>1000008</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B515">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000009</v>
+      </c>
+      <c r="G515">
+        <v>1000009</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B516">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000010</v>
+      </c>
+      <c r="G516">
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B517">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000011</v>
+      </c>
+      <c r="G517">
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000012</v>
+      </c>
+      <c r="G518">
+        <v>1000012</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B519">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000013</v>
+      </c>
+      <c r="G519">
+        <v>1000013</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000014</v>
+      </c>
+      <c r="G520">
+        <v>1000014</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000015</v>
+      </c>
+      <c r="G521">
+        <v>1000015</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B522">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000016</v>
+      </c>
+      <c r="G522">
+        <v>1000016</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000017</v>
+      </c>
+      <c r="G523">
+        <v>1000017</v>
+      </c>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000018</v>
+      </c>
+      <c r="G524">
+        <v>1000018</v>
+      </c>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000019</v>
+      </c>
+      <c r="G525">
+        <v>1000019</v>
+      </c>
+    </row>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000020</v>
+      </c>
+      <c r="G526">
+        <v>1000020</v>
+      </c>
+    </row>
+    <row r="527" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000021</v>
+      </c>
+      <c r="G527">
+        <v>1000021</v>
+      </c>
+    </row>
+    <row r="528" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000022</v>
+      </c>
+      <c r="G528">
+        <v>1000022</v>
+      </c>
+    </row>
+    <row r="529" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B529">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000023</v>
+      </c>
+      <c r="G529">
+        <v>1000023</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B530">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000024</v>
+      </c>
+      <c r="G530">
+        <v>1000024</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B531">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000025</v>
+      </c>
+      <c r="G531">
+        <v>1000025</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B532">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000026</v>
+      </c>
+      <c r="G532">
+        <v>1000026</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B533">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000027</v>
+      </c>
+      <c r="G533">
+        <v>1000027</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B534">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000028</v>
+      </c>
+      <c r="G534">
+        <v>1000028</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B535">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000029</v>
+      </c>
+      <c r="G535">
+        <v>1000029</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B536">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000030</v>
+      </c>
+      <c r="G536">
+        <v>1000030</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B537">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000031</v>
+      </c>
+      <c r="G537">
+        <v>1000031</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B538">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000032</v>
+      </c>
+      <c r="G538">
+        <v>1000032</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B539">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000033</v>
+      </c>
+      <c r="G539">
+        <v>1000033</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B540">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000034</v>
+      </c>
+      <c r="G540">
+        <v>1000034</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B541">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000035</v>
+      </c>
+      <c r="G541">
+        <v>1000035</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B542">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000036</v>
+      </c>
+      <c r="G542">
+        <v>1000036</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B543">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000037</v>
+      </c>
+      <c r="G543">
+        <v>1000037</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B544">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000038</v>
+      </c>
+      <c r="G544">
+        <v>1000038</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B545">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000039</v>
+      </c>
+      <c r="G545">
+        <v>1000039</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B546">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000040</v>
+      </c>
+      <c r="G546">
+        <v>1000040</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000041</v>
+      </c>
+      <c r="G547">
+        <v>1000041</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000042</v>
+      </c>
+      <c r="G548">
+        <v>1000042</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000043</v>
+      </c>
+      <c r="G549">
+        <v>1000043</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000044</v>
+      </c>
+      <c r="G550">
+        <v>1000044</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B551">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000045</v>
+      </c>
+      <c r="G551">
+        <v>1000045</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B552">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000046</v>
+      </c>
+      <c r="G552">
+        <v>1000046</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B553">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000047</v>
+      </c>
+      <c r="G553">
+        <v>1000047</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B554">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000048</v>
+      </c>
+      <c r="G554">
+        <v>1000048</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B555">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000049</v>
+      </c>
+      <c r="G555">
+        <v>1000049</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B556">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000050</v>
+      </c>
+      <c r="G556">
+        <v>1000050</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B557">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000051</v>
+      </c>
+      <c r="G557">
+        <v>1000051</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B558">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000052</v>
+      </c>
+      <c r="G558">
+        <v>1000052</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B559">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000053</v>
+      </c>
+      <c r="G559">
+        <v>1000053</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B560">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000054</v>
+      </c>
+      <c r="G560">
+        <v>1000054</v>
+      </c>
+    </row>
+    <row r="561" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B561">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000055</v>
+      </c>
+      <c r="G561">
+        <v>1000055</v>
+      </c>
+    </row>
+    <row r="562" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B562">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000056</v>
+      </c>
+      <c r="G562">
+        <v>1000056</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B563">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000057</v>
+      </c>
+      <c r="G563">
+        <v>1000057</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B564">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000058</v>
+      </c>
+      <c r="G564">
+        <v>1000058</v>
+      </c>
+    </row>
+    <row r="565" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B565">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000059</v>
+      </c>
+      <c r="G565">
+        <v>1000059</v>
+      </c>
+    </row>
+    <row r="566" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B566">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000060</v>
+      </c>
+      <c r="G566">
+        <v>1000060</v>
+      </c>
+    </row>
+    <row r="567" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B567">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000061</v>
+      </c>
+      <c r="G567">
+        <v>1000061</v>
+      </c>
+    </row>
+    <row r="568" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B568">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000062</v>
+      </c>
+      <c r="G568">
+        <v>1000062</v>
+      </c>
+    </row>
+    <row r="569" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B569">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000063</v>
+      </c>
+      <c r="G569">
+        <v>1000063</v>
+      </c>
+    </row>
+    <row r="570" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B570">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000064</v>
+      </c>
+      <c r="G570">
+        <v>1000064</v>
+      </c>
+    </row>
+    <row r="571" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B571">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000065</v>
+      </c>
+      <c r="G571">
+        <v>1000065</v>
+      </c>
+    </row>
+    <row r="572" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B572">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000066</v>
+      </c>
+      <c r="G572">
+        <v>1000066</v>
+      </c>
+    </row>
+    <row r="573" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B573">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000067</v>
+      </c>
+      <c r="G573">
+        <v>1000067</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B574">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000068</v>
+      </c>
+      <c r="G574">
+        <v>1000068</v>
+      </c>
+    </row>
+    <row r="575" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B575">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000069</v>
+      </c>
+      <c r="G575">
+        <v>1000069</v>
+      </c>
+    </row>
+    <row r="576" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B576">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000070</v>
+      </c>
+      <c r="G576">
+        <v>1000070</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B577">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000071</v>
+      </c>
+      <c r="G577">
+        <v>1000071</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B578">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000072</v>
+      </c>
+      <c r="G578">
+        <v>1000072</v>
+      </c>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B579">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000073</v>
+      </c>
+      <c r="G579">
+        <v>1000073</v>
+      </c>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B580">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000074</v>
+      </c>
+      <c r="G580">
+        <v>1000074</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B581">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000075</v>
+      </c>
+      <c r="G581">
+        <v>1000075</v>
+      </c>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B582">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000076</v>
+      </c>
+      <c r="G582">
+        <v>1000076</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B583">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000077</v>
+      </c>
+      <c r="G583">
+        <v>1000077</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B584">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000078</v>
+      </c>
+      <c r="G584">
+        <v>1000078</v>
+      </c>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B585">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000079</v>
+      </c>
+      <c r="G585">
+        <v>1000079</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B586">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000080</v>
+      </c>
+      <c r="G586">
+        <v>1000080</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B587">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000081</v>
+      </c>
+      <c r="G587">
+        <v>1000081</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B588">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000082</v>
+      </c>
+      <c r="G588">
+        <v>1000082</v>
+      </c>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B589">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000083</v>
+      </c>
+      <c r="G589">
+        <v>1000083</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B590">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000084</v>
+      </c>
+      <c r="G590">
+        <v>1000084</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B591">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000085</v>
+      </c>
+      <c r="G591">
+        <v>1000085</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B592">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000086</v>
+      </c>
+      <c r="G592">
+        <v>1000086</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B593">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000087</v>
+      </c>
+      <c r="G593">
+        <v>1000087</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B594">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000088</v>
+      </c>
+      <c r="G594">
+        <v>1000088</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B595">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000089</v>
+      </c>
+      <c r="G595">
+        <v>1000089</v>
+      </c>
+    </row>
+    <row r="596" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B596">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000090</v>
+      </c>
+      <c r="G596">
+        <v>1000090</v>
+      </c>
+    </row>
+    <row r="597" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B597">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000091</v>
+      </c>
+      <c r="G597">
+        <v>1000091</v>
+      </c>
+    </row>
+    <row r="598" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B598">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000092</v>
+      </c>
+      <c r="G598">
+        <v>1000092</v>
+      </c>
+    </row>
+    <row r="599" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B599">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000093</v>
+      </c>
+      <c r="G599">
+        <v>1000093</v>
+      </c>
+    </row>
+    <row r="600" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B600">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000094</v>
+      </c>
+      <c r="G600">
+        <v>1000094</v>
+      </c>
+    </row>
+    <row r="601" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B601">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000095</v>
+      </c>
+      <c r="G601">
+        <v>1000095</v>
+      </c>
+    </row>
+    <row r="602" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B602">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000096</v>
+      </c>
+      <c r="G602">
+        <v>1000096</v>
+      </c>
+    </row>
+    <row r="603" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B603">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000097</v>
+      </c>
+      <c r="G603">
+        <v>1000097</v>
+      </c>
+    </row>
+    <row r="604" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B604">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000098</v>
+      </c>
+      <c r="G604">
+        <v>1000098</v>
+      </c>
+    </row>
+    <row r="605" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B605">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000099</v>
+      </c>
+      <c r="G605">
+        <v>1000099</v>
+      </c>
+    </row>
+    <row r="606" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B606">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000100</v>
+      </c>
+      <c r="G606">
+        <v>1000100</v>
+      </c>
+    </row>
+    <row r="607" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B607">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000101</v>
+      </c>
+      <c r="G607">
+        <v>1000101</v>
+      </c>
+    </row>
+    <row r="608" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B608">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000102</v>
+      </c>
+      <c r="G608">
+        <v>1000102</v>
+      </c>
+    </row>
+    <row r="609" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B609">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000103</v>
+      </c>
+      <c r="G609">
+        <v>1000103</v>
+      </c>
+    </row>
+    <row r="610" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B610">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000104</v>
+      </c>
+      <c r="G610">
+        <v>1000104</v>
+      </c>
+    </row>
+    <row r="611" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B611">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000105</v>
+      </c>
+      <c r="G611">
+        <v>1000105</v>
+      </c>
+    </row>
+    <row r="612" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B612">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000106</v>
+      </c>
+      <c r="G612">
+        <v>1000106</v>
+      </c>
+    </row>
+    <row r="613" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B613">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000107</v>
+      </c>
+      <c r="G613">
+        <v>1000107</v>
+      </c>
+    </row>
+    <row r="614" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B614">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000108</v>
+      </c>
+      <c r="G614">
+        <v>1000108</v>
+      </c>
+    </row>
+    <row r="615" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B615">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000109</v>
+      </c>
+      <c r="G615">
+        <v>1000109</v>
+      </c>
+    </row>
+    <row r="616" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B616">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000110</v>
+      </c>
+      <c r="G616">
+        <v>1000110</v>
+      </c>
+    </row>
+    <row r="617" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B617">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000111</v>
+      </c>
+      <c r="G617">
+        <v>1000111</v>
+      </c>
+    </row>
+    <row r="618" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B618">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000112</v>
+      </c>
+      <c r="G618">
+        <v>1000112</v>
+      </c>
+    </row>
+    <row r="619" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B619">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000113</v>
+      </c>
+      <c r="G619">
+        <v>1000113</v>
+      </c>
+    </row>
+    <row r="620" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B620">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000114</v>
+      </c>
+      <c r="G620">
+        <v>1000114</v>
+      </c>
+    </row>
+    <row r="621" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B621">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000115</v>
+      </c>
+      <c r="G621">
+        <v>1000115</v>
+      </c>
+    </row>
+    <row r="622" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B622">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000116</v>
+      </c>
+      <c r="G622">
+        <v>1000116</v>
+      </c>
+    </row>
+    <row r="623" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B623">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000117</v>
+      </c>
+      <c r="G623">
+        <v>1000117</v>
+      </c>
+    </row>
+    <row r="624" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B624">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000118</v>
+      </c>
+      <c r="G624">
+        <v>1000118</v>
+      </c>
+    </row>
+    <row r="625" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B625">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000119</v>
+      </c>
+      <c r="G625">
+        <v>1000119</v>
+      </c>
+    </row>
+    <row r="626" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B626">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000120</v>
+      </c>
+      <c r="G626">
+        <v>1000120</v>
+      </c>
+    </row>
+    <row r="627" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B627">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000121</v>
+      </c>
+      <c r="G627">
+        <v>1000121</v>
+      </c>
+    </row>
+    <row r="628" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B628">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000122</v>
+      </c>
+      <c r="G628">
+        <v>1000122</v>
+      </c>
+    </row>
+    <row r="629" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B629">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000123</v>
+      </c>
+      <c r="G629">
+        <v>1000123</v>
+      </c>
+    </row>
+    <row r="630" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B630">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000124</v>
+      </c>
+      <c r="G630">
+        <v>1000124</v>
+      </c>
+    </row>
+    <row r="631" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B631">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000125</v>
+      </c>
+      <c r="G631">
+        <v>1000125</v>
+      </c>
+    </row>
+    <row r="632" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B632">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000126</v>
+      </c>
+      <c r="G632">
+        <v>1000126</v>
+      </c>
+    </row>
+    <row r="633" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B633">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000127</v>
+      </c>
+      <c r="G633">
+        <v>1000127</v>
+      </c>
+    </row>
+    <row r="634" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B634">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000128</v>
+      </c>
+      <c r="G634">
+        <v>1000128</v>
+      </c>
+    </row>
+    <row r="635" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B635">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000129</v>
+      </c>
+      <c r="G635">
+        <v>1000129</v>
+      </c>
+    </row>
+    <row r="636" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B636">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000130</v>
+      </c>
+      <c r="G636">
+        <v>1000130</v>
+      </c>
+    </row>
+    <row r="637" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B637">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000131</v>
+      </c>
+      <c r="G637">
+        <v>1000131</v>
+      </c>
+    </row>
+    <row r="638" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B638">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000132</v>
+      </c>
+      <c r="G638">
+        <v>1000132</v>
+      </c>
+    </row>
+    <row r="639" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B639">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000133</v>
+      </c>
+      <c r="G639">
+        <v>1000133</v>
+      </c>
+    </row>
+    <row r="640" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B640">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000134</v>
+      </c>
+      <c r="G640">
+        <v>1000134</v>
+      </c>
+    </row>
+    <row r="641" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B641">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000135</v>
+      </c>
+      <c r="G641">
+        <v>1000135</v>
+      </c>
+    </row>
+    <row r="642" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B642">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000136</v>
+      </c>
+      <c r="G642">
+        <v>1000136</v>
+      </c>
+    </row>
+    <row r="643" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B643">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000137</v>
+      </c>
+      <c r="G643">
+        <v>1000137</v>
+      </c>
+    </row>
+    <row r="644" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B644">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000138</v>
+      </c>
+      <c r="G644">
+        <v>1000138</v>
+      </c>
+    </row>
+    <row r="645" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B645">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000139</v>
+      </c>
+      <c r="G645">
+        <v>1000139</v>
+      </c>
+    </row>
+    <row r="646" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B646">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000140</v>
+      </c>
+      <c r="G646">
+        <v>1000140</v>
+      </c>
+    </row>
+    <row r="647" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B647">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000141</v>
+      </c>
+      <c r="G647">
+        <v>1000141</v>
+      </c>
+    </row>
+    <row r="648" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B648">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000142</v>
+      </c>
+      <c r="G648">
+        <v>1000142</v>
+      </c>
+    </row>
+    <row r="649" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B649">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000143</v>
+      </c>
+      <c r="G649">
+        <v>1000143</v>
+      </c>
+    </row>
+    <row r="650" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B650">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000144</v>
+      </c>
+      <c r="G650">
+        <v>1000144</v>
+      </c>
+    </row>
+    <row r="651" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B651">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000145</v>
+      </c>
+      <c r="G651">
+        <v>1000145</v>
+      </c>
+    </row>
+    <row r="652" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B652">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000146</v>
+      </c>
+      <c r="G652">
+        <v>1000146</v>
+      </c>
+    </row>
+    <row r="653" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B653">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000147</v>
+      </c>
+      <c r="G653">
+        <v>1000147</v>
+      </c>
+    </row>
+    <row r="654" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B654">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000148</v>
+      </c>
+      <c r="G654">
+        <v>1000148</v>
+      </c>
+    </row>
+    <row r="655" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B655">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000149</v>
+      </c>
+      <c r="G655">
+        <v>1000149</v>
+      </c>
+    </row>
+    <row r="656" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B656">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000150</v>
+      </c>
+      <c r="G656">
+        <v>1000150</v>
+      </c>
+    </row>
+    <row r="657" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B657">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000151</v>
+      </c>
+      <c r="G657">
+        <v>1000151</v>
+      </c>
+    </row>
+    <row r="658" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B658">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000152</v>
+      </c>
+      <c r="G658">
+        <v>1000152</v>
+      </c>
+    </row>
+    <row r="659" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B659">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000153</v>
+      </c>
+      <c r="G659">
+        <v>1000153</v>
+      </c>
+    </row>
+    <row r="660" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B660">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000154</v>
+      </c>
+      <c r="G660">
+        <v>1000154</v>
+      </c>
+    </row>
+    <row r="661" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B661">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000155</v>
+      </c>
+      <c r="G661">
+        <v>1000155</v>
+      </c>
+    </row>
+    <row r="662" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B662">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000156</v>
+      </c>
+      <c r="G662">
+        <v>1000156</v>
+      </c>
+    </row>
+    <row r="663" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B663">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000157</v>
+      </c>
+      <c r="G663">
+        <v>1000157</v>
+      </c>
+    </row>
+    <row r="664" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B664">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000158</v>
+      </c>
+      <c r="G664">
+        <v>1000158</v>
+      </c>
+    </row>
+    <row r="665" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B665">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000159</v>
+      </c>
+      <c r="G665">
+        <v>1000159</v>
+      </c>
+    </row>
+    <row r="666" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B666">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000160</v>
+      </c>
+      <c r="G666">
+        <v>1000160</v>
+      </c>
+    </row>
+    <row r="667" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B667">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000161</v>
+      </c>
+      <c r="G667">
+        <v>1000161</v>
+      </c>
+    </row>
+    <row r="668" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B668">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000162</v>
+      </c>
+      <c r="G668">
+        <v>1000162</v>
+      </c>
+    </row>
+    <row r="669" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B669">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000163</v>
+      </c>
+      <c r="G669">
+        <v>1000163</v>
+      </c>
+    </row>
+    <row r="670" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B670">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000164</v>
+      </c>
+      <c r="G670">
+        <v>1000164</v>
+      </c>
+    </row>
+    <row r="671" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B671">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000165</v>
+      </c>
+      <c r="G671">
+        <v>1000165</v>
+      </c>
+    </row>
+    <row r="672" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B672">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000166</v>
+      </c>
+      <c r="G672">
+        <v>1000166</v>
+      </c>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B673">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000167</v>
+      </c>
+      <c r="G673">
+        <v>1000167</v>
+      </c>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B674">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000168</v>
+      </c>
+      <c r="G674">
+        <v>1000168</v>
+      </c>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B675">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000169</v>
+      </c>
+      <c r="G675">
+        <v>1000169</v>
+      </c>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B676">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000170</v>
+      </c>
+      <c r="G676">
+        <v>1000170</v>
+      </c>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B677">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000171</v>
+      </c>
+      <c r="G677">
+        <v>1000171</v>
+      </c>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B678">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000172</v>
+      </c>
+      <c r="G678">
+        <v>1000172</v>
+      </c>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B679">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000173</v>
+      </c>
+      <c r="G679">
+        <v>1000173</v>
+      </c>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B680">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000174</v>
+      </c>
+      <c r="G680">
+        <v>1000174</v>
+      </c>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B681">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000175</v>
+      </c>
+      <c r="G681">
+        <v>1000175</v>
+      </c>
+    </row>
+    <row r="682" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B682">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000176</v>
+      </c>
+      <c r="G682">
+        <v>1000176</v>
+      </c>
+    </row>
+    <row r="683" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B683">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000177</v>
+      </c>
+      <c r="G683">
+        <v>1000177</v>
+      </c>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B684">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000178</v>
+      </c>
+      <c r="G684">
+        <v>1000178</v>
+      </c>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B685">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000179</v>
+      </c>
+      <c r="G685">
+        <v>1000179</v>
+      </c>
+    </row>
+    <row r="686" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B686">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000180</v>
+      </c>
+      <c r="G686">
+        <v>1000180</v>
+      </c>
+    </row>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B687">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000181</v>
+      </c>
+      <c r="G687">
+        <v>1000181</v>
+      </c>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B688">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000182</v>
+      </c>
+      <c r="G688">
+        <v>1000182</v>
+      </c>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B689">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000183</v>
+      </c>
+      <c r="G689">
+        <v>1000183</v>
+      </c>
+    </row>
+    <row r="690" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B690">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000184</v>
+      </c>
+      <c r="G690">
+        <v>1000184</v>
+      </c>
+    </row>
+    <row r="691" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B691">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000185</v>
+      </c>
+      <c r="G691">
+        <v>1000185</v>
+      </c>
+    </row>
+    <row r="692" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B692">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000186</v>
+      </c>
+      <c r="G692">
+        <v>1000186</v>
+      </c>
+    </row>
+    <row r="693" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B693">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000187</v>
+      </c>
+      <c r="G693">
+        <v>1000187</v>
+      </c>
+    </row>
+    <row r="694" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B694">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000188</v>
+      </c>
+      <c r="G694">
+        <v>1000188</v>
+      </c>
+    </row>
+    <row r="695" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B695">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000189</v>
+      </c>
+      <c r="G695">
+        <v>1000189</v>
+      </c>
+    </row>
+    <row r="696" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B696">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000190</v>
+      </c>
+      <c r="G696">
+        <v>1000190</v>
+      </c>
+    </row>
+    <row r="697" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B697">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000191</v>
+      </c>
+      <c r="G697">
+        <v>1000191</v>
+      </c>
+    </row>
+    <row r="698" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B698">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000192</v>
+      </c>
+      <c r="G698">
+        <v>1000192</v>
+      </c>
+    </row>
+    <row r="699" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B699">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000193</v>
+      </c>
+      <c r="G699">
+        <v>1000193</v>
+      </c>
+    </row>
+    <row r="700" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B700">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000194</v>
+      </c>
+      <c r="G700">
+        <v>1000194</v>
+      </c>
+    </row>
+    <row r="701" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B701">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000195</v>
+      </c>
+      <c r="G701">
+        <v>1000195</v>
+      </c>
+    </row>
+    <row r="702" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B702">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000196</v>
+      </c>
+      <c r="G702">
+        <v>1000196</v>
+      </c>
+    </row>
+    <row r="703" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B703">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000197</v>
+      </c>
+      <c r="G703">
+        <v>1000197</v>
+      </c>
+    </row>
+    <row r="704" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B704">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000198</v>
+      </c>
+      <c r="G704">
+        <v>1000198</v>
+      </c>
+    </row>
+    <row r="705" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B705">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000199</v>
+      </c>
+      <c r="G705">
+        <v>1000199</v>
+      </c>
+    </row>
+    <row r="706" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B706">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000200</v>
+      </c>
+      <c r="G706">
+        <v>1000200</v>
+      </c>
+    </row>
+    <row r="707" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B707">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000201</v>
+      </c>
+      <c r="G707">
+        <v>1000201</v>
+      </c>
+    </row>
+    <row r="708" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B708">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000202</v>
+      </c>
+      <c r="G708">
+        <v>1000202</v>
+      </c>
+    </row>
+    <row r="709" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B709">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000203</v>
+      </c>
+      <c r="G709">
+        <v>1000203</v>
+      </c>
+    </row>
+    <row r="710" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B710">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000204</v>
+      </c>
+      <c r="G710">
+        <v>1000204</v>
+      </c>
+    </row>
+    <row r="711" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B711">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000205</v>
+      </c>
+      <c r="G711">
+        <v>1000205</v>
+      </c>
+    </row>
+    <row r="712" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B712">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000206</v>
+      </c>
+      <c r="G712">
+        <v>1000206</v>
+      </c>
+    </row>
+    <row r="713" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B713">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000207</v>
+      </c>
+      <c r="G713">
+        <v>1000207</v>
+      </c>
+    </row>
+    <row r="714" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B714">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000208</v>
+      </c>
+      <c r="G714">
+        <v>1000208</v>
+      </c>
+    </row>
+    <row r="715" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B715">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000209</v>
+      </c>
+      <c r="G715">
+        <v>1000209</v>
+      </c>
+    </row>
+    <row r="716" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B716">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000210</v>
+      </c>
+      <c r="G716">
+        <v>1000210</v>
+      </c>
+    </row>
+    <row r="717" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B717">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000211</v>
+      </c>
+      <c r="G717">
+        <v>1000211</v>
+      </c>
+    </row>
+    <row r="718" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B718">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000212</v>
+      </c>
+      <c r="G718">
+        <v>1000212</v>
+      </c>
+    </row>
+    <row r="719" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B719">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000213</v>
+      </c>
+      <c r="G719">
+        <v>1000213</v>
+      </c>
+    </row>
+    <row r="720" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B720">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000214</v>
+      </c>
+      <c r="G720">
+        <v>1000214</v>
+      </c>
+    </row>
+    <row r="721" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B721">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000215</v>
+      </c>
+      <c r="G721">
+        <v>1000215</v>
+      </c>
+    </row>
+    <row r="722" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B722">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000216</v>
+      </c>
+      <c r="G722">
+        <v>1000216</v>
+      </c>
+    </row>
+    <row r="723" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B723">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000217</v>
+      </c>
+      <c r="G723">
+        <v>1000217</v>
+      </c>
+    </row>
+    <row r="724" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B724">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000218</v>
+      </c>
+      <c r="G724">
+        <v>1000218</v>
+      </c>
+    </row>
+    <row r="725" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B725">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000219</v>
+      </c>
+      <c r="G725">
+        <v>1000219</v>
+      </c>
+    </row>
+    <row r="726" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B726">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000220</v>
+      </c>
+      <c r="G726">
+        <v>1000220</v>
+      </c>
+    </row>
+    <row r="727" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B727">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000221</v>
+      </c>
+      <c r="G727">
+        <v>1000221</v>
+      </c>
+    </row>
+    <row r="728" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B728">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000222</v>
+      </c>
+      <c r="G728">
+        <v>1000222</v>
+      </c>
+    </row>
+    <row r="729" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B729">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000223</v>
+      </c>
+      <c r="G729">
+        <v>1000223</v>
+      </c>
+    </row>
+    <row r="730" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B730">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000224</v>
+      </c>
+      <c r="G730">
+        <v>1000224</v>
+      </c>
+    </row>
+    <row r="731" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B731">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000225</v>
+      </c>
+      <c r="G731">
+        <v>1000225</v>
+      </c>
+    </row>
+    <row r="732" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B732">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000226</v>
+      </c>
+      <c r="G732">
+        <v>1000226</v>
+      </c>
+    </row>
+    <row r="733" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B733">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000227</v>
+      </c>
+      <c r="G733">
+        <v>1000227</v>
+      </c>
+    </row>
+    <row r="734" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B734">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000228</v>
+      </c>
+      <c r="G734">
+        <v>1000228</v>
+      </c>
+    </row>
+    <row r="735" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B735">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000229</v>
+      </c>
+      <c r="G735">
+        <v>1000229</v>
+      </c>
+    </row>
+    <row r="736" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B736">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000230</v>
+      </c>
+      <c r="G736">
+        <v>1000230</v>
+      </c>
+    </row>
+    <row r="737" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B737">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000231</v>
+      </c>
+      <c r="G737">
+        <v>1000231</v>
+      </c>
+    </row>
+    <row r="738" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B738">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000232</v>
+      </c>
+      <c r="G738">
+        <v>1000232</v>
+      </c>
+    </row>
+    <row r="739" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B739">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000233</v>
+      </c>
+      <c r="G739">
+        <v>1000233</v>
+      </c>
+    </row>
+    <row r="740" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B740">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000234</v>
+      </c>
+      <c r="G740">
+        <v>1000234</v>
+      </c>
+    </row>
+    <row r="741" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B741">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000235</v>
+      </c>
+      <c r="G741">
+        <v>1000235</v>
+      </c>
+    </row>
+    <row r="742" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B742">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000236</v>
+      </c>
+      <c r="G742">
+        <v>1000236</v>
+      </c>
+    </row>
+    <row r="743" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B743">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000237</v>
+      </c>
+      <c r="G743">
+        <v>1000237</v>
+      </c>
+    </row>
+    <row r="744" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B744">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000238</v>
+      </c>
+      <c r="G744">
+        <v>1000238</v>
+      </c>
+    </row>
+    <row r="745" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B745">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000239</v>
+      </c>
+      <c r="G745">
+        <v>1000239</v>
+      </c>
+    </row>
+    <row r="746" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B746">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000240</v>
+      </c>
+      <c r="G746">
+        <v>1000240</v>
+      </c>
+    </row>
+    <row r="747" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B747">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000241</v>
+      </c>
+      <c r="G747">
+        <v>1000241</v>
+      </c>
+    </row>
+    <row r="748" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B748">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000242</v>
+      </c>
+      <c r="G748">
+        <v>1000242</v>
+      </c>
+    </row>
+    <row r="749" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B749">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000243</v>
+      </c>
+      <c r="G749">
+        <v>1000243</v>
+      </c>
+    </row>
+    <row r="750" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B750">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000244</v>
+      </c>
+      <c r="G750">
+        <v>1000244</v>
+      </c>
+    </row>
+    <row r="751" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B751">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000245</v>
+      </c>
+      <c r="G751">
+        <v>1000245</v>
+      </c>
+    </row>
+    <row r="752" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B752">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000246</v>
+      </c>
+      <c r="G752">
+        <v>1000246</v>
+      </c>
+    </row>
+    <row r="753" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B753">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000247</v>
+      </c>
+      <c r="G753">
+        <v>1000247</v>
+      </c>
+    </row>
+    <row r="754" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B754">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000248</v>
+      </c>
+      <c r="G754">
+        <v>1000248</v>
+      </c>
+    </row>
+    <row r="755" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B755">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000249</v>
+      </c>
+      <c r="G755">
+        <v>1000249</v>
+      </c>
+    </row>
+    <row r="756" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B756">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000250</v>
+      </c>
+      <c r="G756">
+        <v>1000250</v>
+      </c>
+    </row>
+    <row r="757" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B757">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000251</v>
+      </c>
+      <c r="G757">
+        <v>1000251</v>
+      </c>
+    </row>
+    <row r="758" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B758">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000252</v>
+      </c>
+      <c r="G758">
+        <v>1000252</v>
+      </c>
+    </row>
+    <row r="759" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B759">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000253</v>
+      </c>
+      <c r="G759">
+        <v>1000253</v>
+      </c>
+    </row>
+    <row r="760" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B760">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000254</v>
+      </c>
+      <c r="G760">
+        <v>1000254</v>
+      </c>
+    </row>
+    <row r="761" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B761">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000255</v>
+      </c>
+      <c r="G761">
+        <v>1000255</v>
+      </c>
+    </row>
+    <row r="762" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B762">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000256</v>
+      </c>
+      <c r="G762">
+        <v>1000256</v>
+      </c>
+    </row>
+    <row r="763" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B763">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000257</v>
+      </c>
+      <c r="G763">
+        <v>1000257</v>
+      </c>
+    </row>
+    <row r="764" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B764">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000258</v>
+      </c>
+      <c r="G764">
+        <v>1000258</v>
+      </c>
+    </row>
+    <row r="765" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B765">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000259</v>
+      </c>
+      <c r="G765">
+        <v>1000259</v>
+      </c>
+    </row>
+    <row r="766" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B766">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000260</v>
+      </c>
+      <c r="G766">
+        <v>1000260</v>
+      </c>
+    </row>
+    <row r="767" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B767">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000261</v>
+      </c>
+      <c r="G767">
+        <v>1000261</v>
+      </c>
+    </row>
+    <row r="768" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B768">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000262</v>
+      </c>
+      <c r="G768">
+        <v>1000262</v>
+      </c>
+    </row>
+    <row r="769" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B769">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000263</v>
+      </c>
+      <c r="G769">
+        <v>1000263</v>
+      </c>
+    </row>
+    <row r="770" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B770">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000264</v>
+      </c>
+      <c r="G770">
+        <v>1000264</v>
+      </c>
+    </row>
+    <row r="771" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B771">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000265</v>
+      </c>
+      <c r="G771">
+        <v>1000265</v>
+      </c>
+    </row>
+    <row r="772" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B772">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000266</v>
+      </c>
+      <c r="G772">
+        <v>1000266</v>
+      </c>
+    </row>
+    <row r="773" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B773">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000267</v>
+      </c>
+      <c r="G773">
+        <v>1000267</v>
+      </c>
+    </row>
+    <row r="774" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B774">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000268</v>
+      </c>
+      <c r="G774">
+        <v>1000268</v>
+      </c>
+    </row>
+    <row r="775" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B775">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000269</v>
+      </c>
+      <c r="G775">
+        <v>1000269</v>
+      </c>
+    </row>
+    <row r="776" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B776">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000270</v>
+      </c>
+      <c r="G776">
+        <v>1000270</v>
+      </c>
+    </row>
+    <row r="777" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B777">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000271</v>
+      </c>
+      <c r="G777">
+        <v>1000271</v>
+      </c>
+    </row>
+    <row r="778" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B778">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000272</v>
+      </c>
+      <c r="G778">
+        <v>1000272</v>
+      </c>
+    </row>
+    <row r="779" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B779">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000273</v>
+      </c>
+      <c r="G779">
+        <v>1000273</v>
+      </c>
+    </row>
+    <row r="780" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B780">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000274</v>
+      </c>
+      <c r="G780">
+        <v>1000274</v>
+      </c>
+    </row>
+    <row r="781" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B781">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000275</v>
+      </c>
+      <c r="G781">
+        <v>1000275</v>
+      </c>
+    </row>
+    <row r="782" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B782">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000276</v>
+      </c>
+      <c r="G782">
+        <v>1000276</v>
+      </c>
+    </row>
+    <row r="783" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B783">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000277</v>
+      </c>
+      <c r="G783">
+        <v>1000277</v>
+      </c>
+    </row>
+    <row r="784" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B784">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000278</v>
+      </c>
+      <c r="G784">
+        <v>1000278</v>
+      </c>
+    </row>
+    <row r="785" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B785">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000279</v>
+      </c>
+      <c r="G785">
+        <v>1000279</v>
+      </c>
+    </row>
+    <row r="786" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B786">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000280</v>
+      </c>
+      <c r="G786">
+        <v>1000280</v>
+      </c>
+    </row>
+    <row r="787" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B787">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000281</v>
+      </c>
+      <c r="G787">
+        <v>1000281</v>
+      </c>
+    </row>
+    <row r="788" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B788">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000282</v>
+      </c>
+      <c r="G788">
+        <v>1000282</v>
+      </c>
+    </row>
+    <row r="789" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B789">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000283</v>
+      </c>
+      <c r="G789">
+        <v>1000283</v>
+      </c>
+    </row>
+    <row r="790" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B790">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000284</v>
+      </c>
+      <c r="G790">
+        <v>1000284</v>
+      </c>
+    </row>
+    <row r="791" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B791">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000285</v>
+      </c>
+      <c r="G791">
+        <v>1000285</v>
+      </c>
+    </row>
+    <row r="792" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B792">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000286</v>
+      </c>
+      <c r="G792">
+        <v>1000286</v>
+      </c>
+    </row>
+    <row r="793" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B793">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000287</v>
+      </c>
+      <c r="G793">
+        <v>1000287</v>
+      </c>
+    </row>
+    <row r="794" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B794">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000288</v>
+      </c>
+      <c r="G794">
+        <v>1000288</v>
+      </c>
+    </row>
+    <row r="795" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B795">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000289</v>
+      </c>
+      <c r="G795">
+        <v>1000289</v>
+      </c>
+    </row>
+    <row r="796" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B796">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000290</v>
+      </c>
+      <c r="G796">
+        <v>1000290</v>
+      </c>
+    </row>
+    <row r="797" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B797">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000291</v>
+      </c>
+      <c r="G797">
+        <v>1000291</v>
+      </c>
+    </row>
+    <row r="798" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B798">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000292</v>
+      </c>
+      <c r="G798">
+        <v>1000292</v>
+      </c>
+    </row>
+    <row r="799" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B799">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000293</v>
+      </c>
+      <c r="G799">
+        <v>1000293</v>
+      </c>
+    </row>
+    <row r="800" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B800">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000294</v>
+      </c>
+      <c r="G800">
+        <v>1000294</v>
+      </c>
+    </row>
+    <row r="801" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B801">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000295</v>
+      </c>
+      <c r="G801">
+        <v>1000295</v>
+      </c>
+    </row>
+    <row r="802" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B802">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000296</v>
+      </c>
+      <c r="G802">
+        <v>1000296</v>
+      </c>
+    </row>
+    <row r="803" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B803">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000297</v>
+      </c>
+      <c r="G803">
+        <v>1000297</v>
+      </c>
+    </row>
+    <row r="804" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B804">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000298</v>
+      </c>
+      <c r="G804">
+        <v>1000298</v>
+      </c>
+    </row>
+    <row r="805" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B805">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000299</v>
+      </c>
+      <c r="G805">
+        <v>1000299</v>
+      </c>
+    </row>
+    <row r="806" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B806">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000300</v>
+      </c>
+      <c r="G806">
+        <v>1000300</v>
+      </c>
+    </row>
+    <row r="807" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B807">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000301</v>
+      </c>
+      <c r="G807">
+        <v>1000301</v>
+      </c>
+    </row>
+    <row r="808" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B808">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000302</v>
+      </c>
+      <c r="G808">
+        <v>1000302</v>
+      </c>
+    </row>
+    <row r="809" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B809">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000303</v>
+      </c>
+      <c r="G809">
+        <v>1000303</v>
+      </c>
+    </row>
+    <row r="810" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B810">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000304</v>
+      </c>
+      <c r="G810">
+        <v>1000304</v>
+      </c>
+    </row>
+    <row r="811" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B811">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000305</v>
+      </c>
+      <c r="G811">
+        <v>1000305</v>
+      </c>
+    </row>
+    <row r="812" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B812">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000306</v>
+      </c>
+      <c r="G812">
+        <v>1000306</v>
+      </c>
+    </row>
+    <row r="813" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B813">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000307</v>
+      </c>
+      <c r="G813">
+        <v>1000307</v>
+      </c>
+    </row>
+    <row r="814" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B814">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000308</v>
+      </c>
+      <c r="G814">
+        <v>1000308</v>
+      </c>
+    </row>
+    <row r="815" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B815">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000309</v>
+      </c>
+      <c r="G815">
+        <v>1000309</v>
+      </c>
+    </row>
+    <row r="816" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B816">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000310</v>
+      </c>
+      <c r="G816">
+        <v>1000310</v>
+      </c>
+    </row>
+    <row r="817" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B817">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000311</v>
+      </c>
+      <c r="G817">
+        <v>1000311</v>
+      </c>
+    </row>
+    <row r="818" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B818">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000312</v>
+      </c>
+      <c r="G818">
+        <v>1000312</v>
+      </c>
+    </row>
+    <row r="819" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B819">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000313</v>
+      </c>
+      <c r="G819">
+        <v>1000313</v>
+      </c>
+    </row>
+    <row r="820" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B820">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000314</v>
+      </c>
+      <c r="G820">
+        <v>1000314</v>
+      </c>
+    </row>
+    <row r="821" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B821">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000315</v>
+      </c>
+      <c r="G821">
+        <v>1000315</v>
+      </c>
+    </row>
+    <row r="822" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B822">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000316</v>
+      </c>
+      <c r="G822">
+        <v>1000316</v>
+      </c>
+    </row>
+    <row r="823" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B823">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000317</v>
+      </c>
+      <c r="G823">
+        <v>1000317</v>
+      </c>
+    </row>
+    <row r="824" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B824">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000318</v>
+      </c>
+      <c r="G824">
+        <v>1000318</v>
+      </c>
+    </row>
+    <row r="825" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B825">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000319</v>
+      </c>
+      <c r="G825">
+        <v>1000319</v>
+      </c>
+    </row>
+    <row r="826" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B826">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000320</v>
+      </c>
+      <c r="G826">
+        <v>1000320</v>
+      </c>
+    </row>
+    <row r="827" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B827">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000321</v>
+      </c>
+      <c r="G827">
+        <v>1000321</v>
+      </c>
+    </row>
+    <row r="828" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B828">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000322</v>
+      </c>
+      <c r="G828">
+        <v>1000322</v>
+      </c>
+    </row>
+    <row r="829" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B829">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000323</v>
+      </c>
+      <c r="G829">
+        <v>1000323</v>
+      </c>
+    </row>
+    <row r="830" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B830">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000324</v>
+      </c>
+      <c r="G830">
+        <v>1000324</v>
+      </c>
+    </row>
+    <row r="831" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B831">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000325</v>
+      </c>
+      <c r="G831">
+        <v>1000325</v>
+      </c>
+    </row>
+    <row r="832" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B832">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000326</v>
+      </c>
+      <c r="G832">
+        <v>1000326</v>
+      </c>
+    </row>
+    <row r="833" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B833">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000327</v>
+      </c>
+      <c r="G833">
+        <v>1000327</v>
+      </c>
+    </row>
+    <row r="834" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B834">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000328</v>
+      </c>
+      <c r="G834">
+        <v>1000328</v>
+      </c>
+    </row>
+    <row r="835" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B835">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000329</v>
+      </c>
+      <c r="G835">
+        <v>1000329</v>
+      </c>
+    </row>
+    <row r="836" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B836">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000330</v>
+      </c>
+      <c r="G836">
+        <v>1000330</v>
+      </c>
+    </row>
+    <row r="837" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B837">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000331</v>
+      </c>
+      <c r="G837">
+        <v>1000331</v>
+      </c>
+    </row>
+    <row r="838" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B838">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000332</v>
+      </c>
+      <c r="G838">
+        <v>1000332</v>
+      </c>
+    </row>
+    <row r="839" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B839">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000333</v>
+      </c>
+      <c r="G839">
+        <v>1000333</v>
+      </c>
+    </row>
+    <row r="840" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B840">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000334</v>
+      </c>
+      <c r="G840">
+        <v>1000334</v>
+      </c>
+    </row>
+    <row r="841" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B841">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000335</v>
+      </c>
+      <c r="G841">
+        <v>1000335</v>
+      </c>
+    </row>
+    <row r="842" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B842">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000336</v>
+      </c>
+      <c r="G842">
+        <v>1000336</v>
+      </c>
+    </row>
+    <row r="843" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B843">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000337</v>
+      </c>
+      <c r="G843">
+        <v>1000337</v>
+      </c>
+    </row>
+    <row r="844" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B844">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000338</v>
+      </c>
+      <c r="G844">
+        <v>1000338</v>
+      </c>
+    </row>
+    <row r="845" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B845">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000339</v>
+      </c>
+      <c r="G845">
+        <v>1000339</v>
+      </c>
+    </row>
+    <row r="846" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B846">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000340</v>
+      </c>
+      <c r="G846">
+        <v>1000340</v>
+      </c>
+    </row>
+    <row r="847" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B847">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000341</v>
+      </c>
+      <c r="G847">
+        <v>1000341</v>
+      </c>
+    </row>
+    <row r="848" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B848">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000342</v>
+      </c>
+      <c r="G848">
+        <v>1000342</v>
+      </c>
+    </row>
+    <row r="849" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B849">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000343</v>
+      </c>
+      <c r="G849">
+        <v>1000343</v>
+      </c>
+    </row>
+    <row r="850" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B850">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000344</v>
+      </c>
+      <c r="G850">
+        <v>1000344</v>
+      </c>
+    </row>
+    <row r="851" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B851">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000345</v>
+      </c>
+      <c r="G851">
+        <v>1000345</v>
+      </c>
+    </row>
+    <row r="852" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B852">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000346</v>
+      </c>
+      <c r="G852">
+        <v>1000346</v>
+      </c>
+    </row>
+    <row r="853" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B853">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000347</v>
+      </c>
+      <c r="G853">
+        <v>1000347</v>
+      </c>
+    </row>
+    <row r="854" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B854">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000348</v>
+      </c>
+      <c r="G854">
+        <v>1000348</v>
+      </c>
+    </row>
+    <row r="855" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B855">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000349</v>
+      </c>
+      <c r="G855">
+        <v>1000349</v>
+      </c>
+    </row>
+    <row r="856" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B856">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000350</v>
+      </c>
+      <c r="G856">
+        <v>1000350</v>
+      </c>
+    </row>
+    <row r="857" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B857">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000351</v>
+      </c>
+      <c r="G857">
+        <v>1000351</v>
+      </c>
+    </row>
+    <row r="858" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B858">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000352</v>
+      </c>
+      <c r="G858">
+        <v>1000352</v>
+      </c>
+    </row>
+    <row r="859" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B859">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000353</v>
+      </c>
+      <c r="G859">
+        <v>1000353</v>
+      </c>
+    </row>
+    <row r="860" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B860">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000354</v>
+      </c>
+      <c r="G860">
+        <v>1000354</v>
+      </c>
+    </row>
+    <row r="861" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B861">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000355</v>
+      </c>
+      <c r="G861">
+        <v>1000355</v>
+      </c>
+    </row>
+    <row r="862" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B862">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000356</v>
+      </c>
+      <c r="G862">
+        <v>1000356</v>
+      </c>
+    </row>
+    <row r="863" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B863">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000357</v>
+      </c>
+      <c r="G863">
+        <v>1000357</v>
+      </c>
+    </row>
+    <row r="864" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B864">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000358</v>
+      </c>
+      <c r="G864">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="865" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B865">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000359</v>
+      </c>
+      <c r="G865">
+        <v>1000359</v>
+      </c>
+    </row>
+    <row r="866" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B866">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000360</v>
+      </c>
+      <c r="G866">
+        <v>1000360</v>
+      </c>
+    </row>
+    <row r="867" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B867">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000361</v>
+      </c>
+      <c r="G867">
+        <v>1000361</v>
+      </c>
+    </row>
+    <row r="868" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B868">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000362</v>
+      </c>
+      <c r="G868">
+        <v>1000362</v>
+      </c>
+    </row>
+    <row r="869" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B869">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000363</v>
+      </c>
+      <c r="G869">
+        <v>1000363</v>
+      </c>
+    </row>
+    <row r="870" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B870">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000364</v>
+      </c>
+      <c r="G870">
+        <v>1000364</v>
+      </c>
+    </row>
+    <row r="871" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B871">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000365</v>
+      </c>
+      <c r="G871">
+        <v>1000365</v>
+      </c>
+    </row>
+    <row r="872" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B872">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000366</v>
+      </c>
+      <c r="G872">
+        <v>1000366</v>
+      </c>
+    </row>
+    <row r="873" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B873">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000367</v>
+      </c>
+      <c r="G873">
+        <v>1000367</v>
+      </c>
+    </row>
+    <row r="874" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B874">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000368</v>
+      </c>
+      <c r="G874">
+        <v>1000368</v>
+      </c>
+    </row>
+    <row r="875" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B875">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000369</v>
+      </c>
+      <c r="G875">
+        <v>1000369</v>
+      </c>
+    </row>
+    <row r="876" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B876">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000370</v>
+      </c>
+      <c r="G876">
+        <v>1000370</v>
+      </c>
+    </row>
+    <row r="877" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B877">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000371</v>
+      </c>
+      <c r="G877">
+        <v>1000371</v>
+      </c>
+    </row>
+    <row r="878" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B878">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000372</v>
+      </c>
+      <c r="G878">
+        <v>1000372</v>
+      </c>
+    </row>
+    <row r="879" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B879">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000373</v>
+      </c>
+      <c r="G879">
+        <v>1000373</v>
+      </c>
+    </row>
+    <row r="880" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B880">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000374</v>
+      </c>
+      <c r="G880">
+        <v>1000374</v>
+      </c>
+    </row>
+    <row r="881" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B881">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000375</v>
+      </c>
+      <c r="G881">
+        <v>1000375</v>
+      </c>
+    </row>
+    <row r="882" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B882">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000376</v>
+      </c>
+      <c r="G882">
+        <v>1000376</v>
+      </c>
+    </row>
+    <row r="883" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B883">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000377</v>
+      </c>
+      <c r="G883">
+        <v>1000377</v>
+      </c>
+    </row>
+    <row r="884" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B884">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000378</v>
+      </c>
+      <c r="G884">
+        <v>1000378</v>
+      </c>
+    </row>
+    <row r="885" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B885">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000379</v>
+      </c>
+      <c r="G885">
+        <v>1000379</v>
+      </c>
+    </row>
+    <row r="886" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B886">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000380</v>
+      </c>
+      <c r="G886">
+        <v>1000380</v>
+      </c>
+    </row>
+    <row r="887" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B887">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000381</v>
+      </c>
+      <c r="G887">
+        <v>1000381</v>
+      </c>
+    </row>
+    <row r="888" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B888">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000382</v>
+      </c>
+      <c r="G888">
+        <v>1000382</v>
+      </c>
+    </row>
+    <row r="889" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B889">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000383</v>
+      </c>
+      <c r="G889">
+        <v>1000383</v>
+      </c>
+    </row>
+    <row r="890" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B890">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000384</v>
+      </c>
+      <c r="G890">
+        <v>1000384</v>
+      </c>
+    </row>
+    <row r="891" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B891">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000385</v>
+      </c>
+      <c r="G891">
+        <v>1000385</v>
+      </c>
+    </row>
+    <row r="892" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B892">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000386</v>
+      </c>
+      <c r="G892">
+        <v>1000386</v>
+      </c>
+    </row>
+    <row r="893" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B893">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000387</v>
+      </c>
+      <c r="G893">
+        <v>1000387</v>
+      </c>
+    </row>
+    <row r="894" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B894">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000388</v>
+      </c>
+      <c r="G894">
+        <v>1000388</v>
+      </c>
+    </row>
+    <row r="895" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B895">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000389</v>
+      </c>
+      <c r="G895">
+        <v>1000389</v>
+      </c>
+    </row>
+    <row r="896" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B896">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000390</v>
+      </c>
+      <c r="G896">
+        <v>1000390</v>
+      </c>
+    </row>
+    <row r="897" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B897">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000391</v>
+      </c>
+      <c r="G897">
+        <v>1000391</v>
+      </c>
+    </row>
+    <row r="898" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B898">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000392</v>
+      </c>
+      <c r="G898">
+        <v>1000392</v>
+      </c>
+    </row>
+    <row r="899" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B899">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000393</v>
+      </c>
+      <c r="G899">
+        <v>1000393</v>
+      </c>
+    </row>
+    <row r="900" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B900">
+        <f>+Tabla1[[#This Row],[CodTerritorio]]</f>
+        <v>1000394</v>
+      </c>
+      <c r="G900">
+        <v>1000394</v>
       </c>
     </row>
   </sheetData>
@@ -25196,14 +28326,7 @@
   <dimension ref="A3:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B145"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="1" activeRow="3" activeCol="1" previousRow="3" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="D4" sqref="D4:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25239,8 +28362,8 @@
         <v>823</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f>+A4&amp;"-"&amp;B4</f>
-        <v>4-10</v>
+        <f>2000&amp;A4&amp;B4</f>
+        <v>2000410</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -25254,8 +28377,8 @@
         <v>821</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" ref="D5:D68" si="0">+A5&amp;"-"&amp;B5</f>
-        <v>5-9</v>
+        <f t="shared" ref="D5:D68" si="0">2000&amp;A5&amp;B5</f>
+        <v>200059</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -25270,7 +28393,7 @@
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>9-4</v>
+        <v>200094</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -25285,7 +28408,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>10-13</v>
+        <v>20001013</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -25300,7 +28423,7 @@
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>12-9</v>
+        <v>2000129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -25315,7 +28438,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>13-11</v>
+        <v>20001311</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -25330,7 +28453,7 @@
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>14-8</v>
+        <v>2000148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -25345,7 +28468,7 @@
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>14-9</v>
+        <v>2000149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -25360,7 +28483,7 @@
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>17-12</v>
+        <v>20001712</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -25375,7 +28498,7 @@
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>19-12</v>
+        <v>20001912</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -25390,7 +28513,7 @@
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>21-15</v>
+        <v>20002115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -25405,7 +28528,7 @@
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>22-12</v>
+        <v>20002212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -25420,7 +28543,7 @@
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>23-3</v>
+        <v>2000233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -25435,7 +28558,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>24-9</v>
+        <v>2000249</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -25450,7 +28573,7 @@
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>24-14</v>
+        <v>20002414</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -25465,7 +28588,7 @@
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>25-1</v>
+        <v>2000251</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -25480,7 +28603,7 @@
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>26-15</v>
+        <v>20002615</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -25495,7 +28618,7 @@
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>27-14</v>
+        <v>20002714</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -25510,7 +28633,7 @@
       </c>
       <c r="D22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>28-12</v>
+        <v>20002812</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -25525,7 +28648,7 @@
       </c>
       <c r="D23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>29-10</v>
+        <v>20002910</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -25540,7 +28663,7 @@
       </c>
       <c r="D24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>30-5</v>
+        <v>2000305</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -25555,7 +28678,7 @@
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>31-8</v>
+        <v>2000318</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -25570,7 +28693,7 @@
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>32-15</v>
+        <v>20003215</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -25585,7 +28708,7 @@
       </c>
       <c r="D27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>33-14</v>
+        <v>20003314</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -25600,7 +28723,7 @@
       </c>
       <c r="D28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>34-3</v>
+        <v>2000343</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -25615,7 +28738,7 @@
       </c>
       <c r="D29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>35-2</v>
+        <v>2000352</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -25630,7 +28753,7 @@
       </c>
       <c r="D30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>36-2</v>
+        <v>2000362</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -25645,7 +28768,7 @@
       </c>
       <c r="D31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>37-12</v>
+        <v>20003712</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -25660,7 +28783,7 @@
       </c>
       <c r="D32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>38-2</v>
+        <v>2000382</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -25675,7 +28798,7 @@
       </c>
       <c r="D33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>38-3</v>
+        <v>2000383</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -25690,7 +28813,7 @@
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>39-10</v>
+        <v>20003910</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -25705,7 +28828,7 @@
       </c>
       <c r="D35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>39-14</v>
+        <v>20003914</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -25720,7 +28843,7 @@
       </c>
       <c r="D36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>40-11</v>
+        <v>20004011</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -25735,7 +28858,7 @@
       </c>
       <c r="D37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>41-8</v>
+        <v>2000418</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -25750,7 +28873,7 @@
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>41-9</v>
+        <v>2000419</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -25765,7 +28888,7 @@
       </c>
       <c r="D39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>42-7</v>
+        <v>2000427</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -25780,7 +28903,7 @@
       </c>
       <c r="D40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>43-6</v>
+        <v>2000436</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -25795,7 +28918,7 @@
       </c>
       <c r="D41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>43-13</v>
+        <v>20004313</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -25810,7 +28933,7 @@
       </c>
       <c r="D42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>44-11</v>
+        <v>20004411</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -25825,7 +28948,7 @@
       </c>
       <c r="D43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>45-9</v>
+        <v>2000459</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -25840,7 +28963,7 @@
       </c>
       <c r="D44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>46-7</v>
+        <v>2000467</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -25855,7 +28978,7 @@
       </c>
       <c r="D45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>47-8</v>
+        <v>2000478</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -25870,7 +28993,7 @@
       </c>
       <c r="D46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>48-9</v>
+        <v>2000489</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -25885,7 +29008,7 @@
       </c>
       <c r="D47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>49-11</v>
+        <v>20004911</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -25900,7 +29023,7 @@
       </c>
       <c r="D48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>51-10</v>
+        <v>20005110</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -25915,7 +29038,7 @@
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>52-14</v>
+        <v>20005214</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -25930,7 +29053,7 @@
       </c>
       <c r="D50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>54-8</v>
+        <v>2000548</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -25945,7 +29068,7 @@
       </c>
       <c r="D51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>55-8</v>
+        <v>2000558</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -25960,7 +29083,7 @@
       </c>
       <c r="D52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>55-16</v>
+        <v>20005516</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -25975,7 +29098,7 @@
       </c>
       <c r="D53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>57-8</v>
+        <v>2000578</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -25990,7 +29113,7 @@
       </c>
       <c r="D54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>58-11</v>
+        <v>20005811</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -26005,7 +29128,7 @@
       </c>
       <c r="D55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>59-2</v>
+        <v>2000592</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -26020,7 +29143,7 @@
       </c>
       <c r="D56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>60-11</v>
+        <v>20006011</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -26035,7 +29158,7 @@
       </c>
       <c r="D57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>61-11</v>
+        <v>20006111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -26050,7 +29173,7 @@
       </c>
       <c r="D58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>62-5</v>
+        <v>2000625</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -26065,7 +29188,7 @@
       </c>
       <c r="D59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>63-11</v>
+        <v>20006311</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -26080,7 +29203,7 @@
       </c>
       <c r="D60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>66-12</v>
+        <v>20006612</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -26095,7 +29218,7 @@
       </c>
       <c r="D61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>67-1</v>
+        <v>2000671</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -26110,7 +29233,7 @@
       </c>
       <c r="D62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>69-4</v>
+        <v>2000694</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -26125,7 +29248,7 @@
       </c>
       <c r="D63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>70-11</v>
+        <v>20007011</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -26140,7 +29263,7 @@
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>71-1</v>
+        <v>2000711</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -26155,7 +29278,7 @@
       </c>
       <c r="D65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>71-15</v>
+        <v>20007115</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -26170,7 +29293,7 @@
       </c>
       <c r="D66" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>72-10</v>
+        <v>20007210</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -26185,7 +29308,7 @@
       </c>
       <c r="D67" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>74-2</v>
+        <v>2000742</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -26200,7 +29323,7 @@
       </c>
       <c r="D68" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>75-16</v>
+        <v>20007516</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -26214,8 +29337,8 @@
         <v>892</v>
       </c>
       <c r="D69" s="5" t="str">
-        <f t="shared" ref="D69:D132" si="1">+A69&amp;"-"&amp;B69</f>
-        <v>76-16</v>
+        <f t="shared" ref="D69:D132" si="1">2000&amp;A69&amp;B69</f>
+        <v>20007616</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -26230,7 +29353,7 @@
       </c>
       <c r="D70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>78-8</v>
+        <v>2000788</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -26245,7 +29368,7 @@
       </c>
       <c r="D71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>79-5</v>
+        <v>2000795</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -26260,7 +29383,7 @@
       </c>
       <c r="D72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>80-6</v>
+        <v>2000806</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -26275,7 +29398,7 @@
       </c>
       <c r="D73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>81-6</v>
+        <v>2000816</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -26290,7 +29413,7 @@
       </c>
       <c r="D74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>81-13</v>
+        <v>20008113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -26305,7 +29428,7 @@
       </c>
       <c r="D75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>82-12</v>
+        <v>20008212</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -26320,7 +29443,7 @@
       </c>
       <c r="D76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>83-8</v>
+        <v>2000838</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -26335,7 +29458,7 @@
       </c>
       <c r="D77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>83-9</v>
+        <v>2000839</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -26350,7 +29473,7 @@
       </c>
       <c r="D78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>84-8</v>
+        <v>2000848</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -26365,7 +29488,7 @@
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>84-9</v>
+        <v>2000849</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -26380,7 +29503,7 @@
       </c>
       <c r="D80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>85-8</v>
+        <v>2000858</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -26395,7 +29518,7 @@
       </c>
       <c r="D81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>85-9</v>
+        <v>2000859</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -26410,7 +29533,7 @@
       </c>
       <c r="D82" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>87-6</v>
+        <v>2000876</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -26425,7 +29548,7 @@
       </c>
       <c r="D83" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>87-13</v>
+        <v>20008713</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -26440,7 +29563,7 @@
       </c>
       <c r="D84" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>88-1</v>
+        <v>2000881</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -26455,7 +29578,7 @@
       </c>
       <c r="D85" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>90-11</v>
+        <v>20009011</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -26470,7 +29593,7 @@
       </c>
       <c r="D86" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>91-9</v>
+        <v>2000919</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -26485,7 +29608,7 @@
       </c>
       <c r="D87" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>96-6</v>
+        <v>2000966</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -26500,7 +29623,7 @@
       </c>
       <c r="D88" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>96-7</v>
+        <v>2000967</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -26515,7 +29638,7 @@
       </c>
       <c r="D89" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>98-1</v>
+        <v>2000981</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -26530,7 +29653,7 @@
       </c>
       <c r="D90" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>99-2</v>
+        <v>2000992</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -26545,7 +29668,7 @@
       </c>
       <c r="D91" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>100-8</v>
+        <v>20001008</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -26560,7 +29683,7 @@
       </c>
       <c r="D92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>102-10</v>
+        <v>200010210</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -26575,7 +29698,7 @@
       </c>
       <c r="D93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>103-11</v>
+        <v>200010311</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -26590,7 +29713,7 @@
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>105-7</v>
+        <v>20001057</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -26605,7 +29728,7 @@
       </c>
       <c r="D95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>106-2</v>
+        <v>20001062</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -26620,7 +29743,7 @@
       </c>
       <c r="D96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>109-10</v>
+        <v>200010910</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -26635,7 +29758,7 @@
       </c>
       <c r="D97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>111-5</v>
+        <v>20001115</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -26650,7 +29773,7 @@
       </c>
       <c r="D98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>111-13</v>
+        <v>200011113</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -26665,7 +29788,7 @@
       </c>
       <c r="D99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>112-13</v>
+        <v>200011213</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -26680,7 +29803,7 @@
       </c>
       <c r="D100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>113-5</v>
+        <v>20001135</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -26695,7 +29818,7 @@
       </c>
       <c r="D101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>115-5</v>
+        <v>20001155</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -26710,7 +29833,7 @@
       </c>
       <c r="D102" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>115-13</v>
+        <v>200011513</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -26725,7 +29848,7 @@
       </c>
       <c r="D103" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>116-13</v>
+        <v>200011613</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -26740,7 +29863,7 @@
       </c>
       <c r="D104" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>120-13</v>
+        <v>200012013</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -26755,7 +29878,7 @@
       </c>
       <c r="D105" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>122-13</v>
+        <v>200012213</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -26770,7 +29893,7 @@
       </c>
       <c r="D106" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>127-13</v>
+        <v>200012713</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -26785,7 +29908,7 @@
       </c>
       <c r="D107" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>129-12</v>
+        <v>200012912</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -26800,7 +29923,7 @@
       </c>
       <c r="D108" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>131-10</v>
+        <v>200013110</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -26815,7 +29938,7 @@
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>133-3</v>
+        <v>20001333</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -26830,7 +29953,7 @@
       </c>
       <c r="D110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>135-3</v>
+        <v>20001353</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -26845,7 +29968,7 @@
       </c>
       <c r="D111" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>136-4</v>
+        <v>20001364</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -26860,7 +29983,7 @@
       </c>
       <c r="D112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>137-12</v>
+        <v>200013712</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -26875,7 +29998,7 @@
       </c>
       <c r="D113" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>138-11</v>
+        <v>200013811</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -26890,7 +30013,7 @@
       </c>
       <c r="D114" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>139-7</v>
+        <v>20001397</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -26905,7 +30028,7 @@
       </c>
       <c r="D115" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>140-6</v>
+        <v>20001406</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -26920,7 +30043,7 @@
       </c>
       <c r="D116" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>140-13</v>
+        <v>200014013</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -26935,7 +30058,7 @@
       </c>
       <c r="D117" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>142-4</v>
+        <v>20001424</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -26950,7 +30073,7 @@
       </c>
       <c r="D118" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>143-13</v>
+        <v>200014313</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -26965,7 +30088,7 @@
       </c>
       <c r="D119" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>146-4</v>
+        <v>20001464</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -26980,7 +30103,7 @@
       </c>
       <c r="D120" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>150-6</v>
+        <v>20001506</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -26995,7 +30118,7 @@
       </c>
       <c r="D121" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>150-13</v>
+        <v>200015013</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -27010,7 +30133,7 @@
       </c>
       <c r="D122" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>151-4</v>
+        <v>20001514</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -27025,7 +30148,7 @@
       </c>
       <c r="D123" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>153-12</v>
+        <v>200015312</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -27040,7 +30163,7 @@
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>154-11</v>
+        <v>200015411</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -27055,7 +30178,7 @@
       </c>
       <c r="D125" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>155-11</v>
+        <v>200015511</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -27070,7 +30193,7 @@
       </c>
       <c r="D126" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>156-11</v>
+        <v>200015611</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -27085,7 +30208,7 @@
       </c>
       <c r="D127" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>158-2</v>
+        <v>20001582</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -27100,7 +30223,7 @@
       </c>
       <c r="D128" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>160-5</v>
+        <v>20001605</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -27115,7 +30238,7 @@
       </c>
       <c r="D129" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>162-12</v>
+        <v>200016212</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -27130,7 +30253,7 @@
       </c>
       <c r="D130" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>165-10</v>
+        <v>200016510</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -27145,7 +30268,7 @@
       </c>
       <c r="D131" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>165-11</v>
+        <v>200016511</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -27160,7 +30283,7 @@
       </c>
       <c r="D132" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>166-12</v>
+        <v>200016612</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -27174,8 +30297,8 @@
         <v>911</v>
       </c>
       <c r="D133" s="5" t="str">
-        <f t="shared" ref="D133:D145" si="2">+A133&amp;"-"&amp;B133</f>
-        <v>167-10</v>
+        <f t="shared" ref="D133:D145" si="2">2000&amp;A133&amp;B133</f>
+        <v>200016710</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -27190,7 +30313,7 @@
       </c>
       <c r="D134" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>168-10</v>
+        <v>200016810</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -27205,7 +30328,7 @@
       </c>
       <c r="D135" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>169-10</v>
+        <v>200016910</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -27220,7 +30343,7 @@
       </c>
       <c r="D136" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>169-11</v>
+        <v>200016911</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -27235,7 +30358,7 @@
       </c>
       <c r="D137" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>170-11</v>
+        <v>200017011</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -27250,7 +30373,7 @@
       </c>
       <c r="D138" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>171-11</v>
+        <v>200017111</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -27265,7 +30388,7 @@
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>172-10</v>
+        <v>200017210</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -27280,7 +30403,7 @@
       </c>
       <c r="D140" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>173-11</v>
+        <v>200017311</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -27295,7 +30418,7 @@
       </c>
       <c r="D141" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>174-10</v>
+        <v>200017410</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -27310,7 +30433,7 @@
       </c>
       <c r="D142" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>177-11</v>
+        <v>200017711</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -27325,7 +30448,7 @@
       </c>
       <c r="D143" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>177-12</v>
+        <v>200017712</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -27340,7 +30463,7 @@
       </c>
       <c r="D144" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>178-12</v>
+        <v>200017812</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -27355,7 +30478,7 @@
       </c>
       <c r="D145" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>179-12</v>
+        <v>200017912</v>
       </c>
     </row>
   </sheetData>
